--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_24_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193280.5171361768</v>
+        <v>192606.250917366</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10305771.19863256</v>
+        <v>10305771.19863253</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="D11" t="n">
-        <v>28.25463438122109</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>16.10261709965973</v>
+        <v>16.10261709965988</v>
       </c>
       <c r="U11" t="n">
-        <v>46.3822082343448</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>74.63684261556563</v>
       </c>
     </row>
     <row r="12">
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.99909704345493</v>
+        <v>20.99909704345507</v>
       </c>
       <c r="V12" t="n">
-        <v>27.87492793801115</v>
+        <v>27.8749279380113</v>
       </c>
       <c r="W12" t="n">
-        <v>46.76932394950549</v>
+        <v>46.76932394950563</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8473259920633609</v>
+        <v>0.847325992063503</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.757036565890246</v>
+        <v>0.7570365658903881</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.3986971683499</v>
+        <v>15.39869716835005</v>
       </c>
       <c r="T13" t="n">
-        <v>22.11468578343604</v>
+        <v>22.11468578343619</v>
       </c>
       <c r="U13" t="n">
-        <v>81.38181383316063</v>
+        <v>81.38181383316078</v>
       </c>
       <c r="V13" t="n">
-        <v>47.21198411241389</v>
+        <v>47.21198411241403</v>
       </c>
       <c r="W13" t="n">
-        <v>81.59733912517689</v>
+        <v>81.59733912517703</v>
       </c>
       <c r="X13" t="n">
-        <v>20.78399617762304</v>
+        <v>20.78399617762318</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.65899414068068</v>
+        <v>13.65899414068082</v>
       </c>
     </row>
     <row r="14">
@@ -1616,61 +1616,61 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.63684261556583</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="G14" t="n">
+        <v>90.73945971522568</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>103.0193684323634</v>
       </c>
-      <c r="H14" t="n">
+      <c r="X14" t="n">
         <v>103.0193684323634</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>16.1026170996598</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>103.0193684323634</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>20.99909704345499</v>
+        <v>20.99909704345513</v>
       </c>
       <c r="V15" t="n">
-        <v>27.87492793801121</v>
+        <v>27.87492793801135</v>
       </c>
       <c r="W15" t="n">
-        <v>46.76932394950555</v>
+        <v>46.76932394950569</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8473259920634177</v>
+        <v>0.8473259920635599</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.7570365658903029</v>
+        <v>0.757036565890445</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>15.39869716834996</v>
+        <v>15.3986971683501</v>
       </c>
       <c r="T16" t="n">
-        <v>22.1146857834361</v>
+        <v>22.11468578343624</v>
       </c>
       <c r="U16" t="n">
-        <v>81.38181383316069</v>
+        <v>81.38181383316083</v>
       </c>
       <c r="V16" t="n">
-        <v>47.21198411241394</v>
+        <v>47.21198411241409</v>
       </c>
       <c r="W16" t="n">
-        <v>81.59733912517694</v>
+        <v>81.59733912517709</v>
       </c>
       <c r="X16" t="n">
-        <v>20.7839961776231</v>
+        <v>20.78399617762324</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.65899414068073</v>
+        <v>13.65899414068087</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>30.63521919901547</v>
       </c>
       <c r="D17" t="n">
-        <v>20.04536904869014</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E17" t="n">
         <v>47.2926975002697</v>
@@ -1856,7 +1856,7 @@
         <v>72.23837316971935</v>
       </c>
       <c r="G17" t="n">
-        <v>80.19274666717324</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.09616909148843</v>
+        <v>48.09616909148849</v>
       </c>
       <c r="C20" t="n">
-        <v>30.63521919901541</v>
+        <v>30.63521919901547</v>
       </c>
       <c r="D20" t="n">
-        <v>20.04536904869082</v>
+        <v>20.04536904869087</v>
       </c>
       <c r="E20" t="n">
-        <v>47.29269750026964</v>
+        <v>47.2926975002697</v>
       </c>
       <c r="F20" t="n">
-        <v>72.2383731697193</v>
+        <v>72.23837316971935</v>
       </c>
       <c r="G20" t="n">
-        <v>80.1927466671732</v>
+        <v>80.19274666717325</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.60329614542106</v>
+        <v>14.60329614542093</v>
       </c>
       <c r="X20" t="n">
-        <v>35.09342810647689</v>
+        <v>35.09342810647631</v>
       </c>
       <c r="Y20" t="n">
-        <v>51.60026608406145</v>
+        <v>51.6002660840615</v>
       </c>
     </row>
     <row r="21">
@@ -2567,7 +2567,7 @@
         <v>214.6092065056287</v>
       </c>
       <c r="G26" t="n">
-        <v>222.5635800030825</v>
+        <v>222.5635800030826</v>
       </c>
       <c r="H26" t="n">
         <v>142.3708333359094</v>
@@ -2603,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.990277636502267</v>
+        <v>5.990277636502285</v>
       </c>
       <c r="T26" t="n">
-        <v>28.76143707499108</v>
+        <v>28.7614370749911</v>
       </c>
       <c r="U26" t="n">
-        <v>59.04102820967614</v>
+        <v>59.04102820967617</v>
       </c>
       <c r="V26" t="n">
-        <v>135.4854192340521</v>
+        <v>135.4854192340522</v>
       </c>
       <c r="W26" t="n">
-        <v>156.9741294813302</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X26" t="n">
         <v>177.4642614423863</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>6.879280512658397</v>
+        <v>6.879280512658425</v>
       </c>
       <c r="U27" t="n">
-        <v>33.65791701878627</v>
+        <v>33.6579170187863</v>
       </c>
       <c r="V27" t="n">
-        <v>40.53374791334249</v>
+        <v>40.53374791334252</v>
       </c>
       <c r="W27" t="n">
-        <v>59.42814392483683</v>
+        <v>59.42814392483686</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5061459673947</v>
+        <v>13.50614596739473</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.41585654122159</v>
+        <v>13.41585654122161</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>28.05751714368125</v>
+        <v>28.05751714368127</v>
       </c>
       <c r="T28" t="n">
-        <v>34.77350575876739</v>
+        <v>34.77350575876741</v>
       </c>
       <c r="U28" t="n">
-        <v>94.04063380849198</v>
+        <v>94.040633808492</v>
       </c>
       <c r="V28" t="n">
-        <v>59.87080408774523</v>
+        <v>59.87080408774526</v>
       </c>
       <c r="W28" t="n">
-        <v>94.25615910050823</v>
+        <v>94.25615910050826</v>
       </c>
       <c r="X28" t="n">
-        <v>33.44281615295438</v>
+        <v>33.44281615295441</v>
       </c>
       <c r="Y28" t="n">
-        <v>26.31781411601202</v>
+        <v>26.31781411601204</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>190.4670024273977</v>
+        <v>190.4670024273978</v>
       </c>
       <c r="C29" t="n">
         <v>173.0060525349247</v>
       </c>
       <c r="D29" t="n">
-        <v>162.4162023846001</v>
+        <v>162.4162023846002</v>
       </c>
       <c r="E29" t="n">
-        <v>189.6635308361789</v>
+        <v>189.663530836179</v>
       </c>
       <c r="F29" t="n">
-        <v>214.6092065056285</v>
+        <v>214.6092065056286</v>
       </c>
       <c r="G29" t="n">
-        <v>222.5635800030824</v>
+        <v>222.5635800030825</v>
       </c>
       <c r="H29" t="n">
-        <v>142.3708333359092</v>
+        <v>142.3708333359093</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.49213974509621e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.990277636502139</v>
+        <v>5.990277636502224</v>
       </c>
       <c r="T29" t="n">
-        <v>28.76143707499096</v>
+        <v>28.76143707499104</v>
       </c>
       <c r="U29" t="n">
-        <v>59.04102820967603</v>
+        <v>59.04102820967611</v>
       </c>
       <c r="V29" t="n">
-        <v>135.485419234052</v>
+        <v>135.4854192340521</v>
       </c>
       <c r="W29" t="n">
-        <v>156.9741294813301</v>
+        <v>156.9741294813302</v>
       </c>
       <c r="X29" t="n">
-        <v>177.4642614423861</v>
+        <v>177.4642614423862</v>
       </c>
       <c r="Y29" t="n">
-        <v>193.9710994199707</v>
+        <v>193.9710994199708</v>
       </c>
     </row>
     <row r="30">
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>6.879280512658283</v>
+        <v>6.879280512658368</v>
       </c>
       <c r="U30" t="n">
-        <v>33.65791701878616</v>
+        <v>33.65791701878624</v>
       </c>
       <c r="V30" t="n">
-        <v>40.53374791334238</v>
+        <v>40.53374791334247</v>
       </c>
       <c r="W30" t="n">
-        <v>59.42814392483672</v>
+        <v>59.4281439248368</v>
       </c>
       <c r="X30" t="n">
-        <v>13.50614596739459</v>
+        <v>13.50614596739467</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.41585654122147</v>
+        <v>13.41585654122156</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.05751714368113</v>
+        <v>28.05751714368122</v>
       </c>
       <c r="T31" t="n">
-        <v>34.77350575876727</v>
+        <v>34.77350575876736</v>
       </c>
       <c r="U31" t="n">
-        <v>94.04063380849186</v>
+        <v>94.04063380849195</v>
       </c>
       <c r="V31" t="n">
-        <v>59.87080408774511</v>
+        <v>59.8708040877452</v>
       </c>
       <c r="W31" t="n">
-        <v>94.25615910050811</v>
+        <v>94.2561591005082</v>
       </c>
       <c r="X31" t="n">
-        <v>33.44281615295426</v>
+        <v>33.44281615295435</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.3178141160119</v>
+        <v>26.31781411601199</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>190.4670024273977</v>
+        <v>190.4670024273978</v>
       </c>
       <c r="C32" t="n">
-        <v>173.0060525349247</v>
+        <v>173.0060525349248</v>
       </c>
       <c r="D32" t="n">
-        <v>162.4162023846001</v>
+        <v>162.4162023846002</v>
       </c>
       <c r="E32" t="n">
-        <v>189.6635308361789</v>
+        <v>189.663530836179</v>
       </c>
       <c r="F32" t="n">
-        <v>214.6092065056286</v>
+        <v>214.6092065056287</v>
       </c>
       <c r="G32" t="n">
-        <v>222.5635800030825</v>
+        <v>222.5635800030826</v>
       </c>
       <c r="H32" t="n">
         <v>142.3708333359093</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.990277636502185</v>
+        <v>5.99027763650227</v>
       </c>
       <c r="T32" t="n">
-        <v>28.76143707499102</v>
+        <v>28.76143707499111</v>
       </c>
       <c r="U32" t="n">
-        <v>59.04102820967609</v>
+        <v>59.04102820967617</v>
       </c>
       <c r="V32" t="n">
-        <v>135.4854192340521</v>
+        <v>135.4854192340522</v>
       </c>
       <c r="W32" t="n">
-        <v>156.9741294813302</v>
+        <v>156.9741294813303</v>
       </c>
       <c r="X32" t="n">
-        <v>177.4642614423862</v>
+        <v>177.4642614423863</v>
       </c>
       <c r="Y32" t="n">
         <v>193.9710994199708</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>6.879280512658339</v>
+        <v>6.879280512658425</v>
       </c>
       <c r="U33" t="n">
-        <v>33.65791701878621</v>
+        <v>33.6579170187863</v>
       </c>
       <c r="V33" t="n">
-        <v>40.53374791334244</v>
+        <v>40.53374791334252</v>
       </c>
       <c r="W33" t="n">
-        <v>59.42814392483677</v>
+        <v>59.42814392483686</v>
       </c>
       <c r="X33" t="n">
-        <v>13.50614596739464</v>
+        <v>13.50614596739473</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.41585654122153</v>
+        <v>13.41585654122161</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.05751714368119</v>
+        <v>28.05751714368127</v>
       </c>
       <c r="T34" t="n">
-        <v>34.77350575876733</v>
+        <v>34.77350575876741</v>
       </c>
       <c r="U34" t="n">
-        <v>94.04063380849192</v>
+        <v>94.040633808492</v>
       </c>
       <c r="V34" t="n">
-        <v>59.87080408774517</v>
+        <v>59.87080408774526</v>
       </c>
       <c r="W34" t="n">
-        <v>94.25615910050817</v>
+        <v>94.25615910050826</v>
       </c>
       <c r="X34" t="n">
-        <v>33.44281615295432</v>
+        <v>33.44281615295441</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.31781411601196</v>
+        <v>26.31781411601204</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023297</v>
       </c>
       <c r="C35" t="n">
-        <v>142.5855650098558</v>
+        <v>142.5855650098567</v>
       </c>
       <c r="D35" t="n">
-        <v>131.9957148595312</v>
+        <v>131.9957148595321</v>
       </c>
       <c r="E35" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111109</v>
       </c>
       <c r="F35" t="n">
-        <v>184.1887189805597</v>
+        <v>184.1887189805605</v>
       </c>
       <c r="G35" t="n">
-        <v>192.1430924780136</v>
+        <v>192.1430924780144</v>
       </c>
       <c r="H35" t="n">
-        <v>111.9503458108404</v>
+        <v>111.9503458108412</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.62054068460719</v>
+        <v>28.62054068460802</v>
       </c>
       <c r="V35" t="n">
-        <v>105.0649317089832</v>
+        <v>105.064931708984</v>
       </c>
       <c r="W35" t="n">
-        <v>126.5536419562613</v>
+        <v>126.5536419562621</v>
       </c>
       <c r="X35" t="n">
-        <v>147.0437739173173</v>
+        <v>147.0437739173181</v>
       </c>
       <c r="Y35" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949027</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.237429493717321</v>
+        <v>3.237429493718145</v>
       </c>
       <c r="V36" t="n">
-        <v>10.11326038827355</v>
+        <v>10.11326038827437</v>
       </c>
       <c r="W36" t="n">
-        <v>29.00765639976788</v>
+        <v>29.00765639976871</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.353018233698434</v>
+        <v>4.353018233699259</v>
       </c>
       <c r="U37" t="n">
-        <v>63.62014628342302</v>
+        <v>63.62014628342384</v>
       </c>
       <c r="V37" t="n">
-        <v>29.45031656267628</v>
+        <v>29.4503165626771</v>
       </c>
       <c r="W37" t="n">
-        <v>63.83567157543928</v>
+        <v>63.8356715754401</v>
       </c>
       <c r="X37" t="n">
-        <v>3.022328627885429</v>
+        <v>3.022328627886253</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023297</v>
       </c>
       <c r="C38" t="n">
-        <v>142.5855650098558</v>
+        <v>142.5855650098567</v>
       </c>
       <c r="D38" t="n">
-        <v>131.9957148595312</v>
+        <v>131.9957148595321</v>
       </c>
       <c r="E38" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111109</v>
       </c>
       <c r="F38" t="n">
-        <v>184.1887189805597</v>
+        <v>184.1887189805605</v>
       </c>
       <c r="G38" t="n">
-        <v>192.1430924780136</v>
+        <v>192.1430924780144</v>
       </c>
       <c r="H38" t="n">
-        <v>111.9503458108404</v>
+        <v>111.9503458108412</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.62054068460719</v>
+        <v>28.62054068460802</v>
       </c>
       <c r="V38" t="n">
-        <v>105.0649317089832</v>
+        <v>105.064931708984</v>
       </c>
       <c r="W38" t="n">
-        <v>126.5536419562613</v>
+        <v>126.5536419562621</v>
       </c>
       <c r="X38" t="n">
-        <v>147.0437739173173</v>
+        <v>147.0437739173181</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949027</v>
       </c>
     </row>
     <row r="39">
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3.237429493717321</v>
+        <v>3.237429493718145</v>
       </c>
       <c r="V39" t="n">
-        <v>10.11326038827355</v>
+        <v>10.11326038827437</v>
       </c>
       <c r="W39" t="n">
-        <v>29.00765639976788</v>
+        <v>29.00765639976871</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.353018233698434</v>
+        <v>4.353018233699259</v>
       </c>
       <c r="U40" t="n">
-        <v>63.62014628342302</v>
+        <v>63.62014628342384</v>
       </c>
       <c r="V40" t="n">
-        <v>29.45031656267628</v>
+        <v>29.4503165626771</v>
       </c>
       <c r="W40" t="n">
-        <v>63.83567157543928</v>
+        <v>63.8356715754401</v>
       </c>
       <c r="X40" t="n">
-        <v>3.022328627885429</v>
+        <v>3.022328627886253</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023297</v>
       </c>
       <c r="C41" t="n">
-        <v>142.5855650098559</v>
+        <v>142.5855650098567</v>
       </c>
       <c r="D41" t="n">
-        <v>131.9957148595313</v>
+        <v>131.9957148595321</v>
       </c>
       <c r="E41" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111109</v>
       </c>
       <c r="F41" t="n">
-        <v>184.1887189805598</v>
+        <v>184.1887189805605</v>
       </c>
       <c r="G41" t="n">
-        <v>192.1430924780137</v>
+        <v>192.1430924780144</v>
       </c>
       <c r="H41" t="n">
-        <v>111.9503458108404</v>
+        <v>111.9503458108412</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>28.62054068460728</v>
+        <v>28.62054068460802</v>
       </c>
       <c r="V41" t="n">
-        <v>105.0649317089833</v>
+        <v>105.064931708984</v>
       </c>
       <c r="W41" t="n">
-        <v>126.5536419562614</v>
+        <v>126.5536419562621</v>
       </c>
       <c r="X41" t="n">
-        <v>147.0437739173174</v>
+        <v>147.0437739173181</v>
       </c>
       <c r="Y41" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949027</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.237429493717406</v>
+        <v>3.237429493718145</v>
       </c>
       <c r="V42" t="n">
-        <v>10.11326038827363</v>
+        <v>10.11326038827437</v>
       </c>
       <c r="W42" t="n">
-        <v>29.00765639976797</v>
+        <v>29.00765639976871</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4.35301823369852</v>
+        <v>4.353018233699259</v>
       </c>
       <c r="U43" t="n">
-        <v>63.6201462834231</v>
+        <v>63.62014628342384</v>
       </c>
       <c r="V43" t="n">
-        <v>29.45031656267636</v>
+        <v>29.4503165626771</v>
       </c>
       <c r="W43" t="n">
-        <v>63.83567157543936</v>
+        <v>63.8356715754401</v>
       </c>
       <c r="X43" t="n">
-        <v>3.022328627885514</v>
+        <v>3.022328627886253</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.0465149023289</v>
+        <v>160.0465149023297</v>
       </c>
       <c r="C44" t="n">
-        <v>142.5855650098559</v>
+        <v>142.5855650098567</v>
       </c>
       <c r="D44" t="n">
-        <v>131.9957148595313</v>
+        <v>131.9957148595319</v>
       </c>
       <c r="E44" t="n">
-        <v>159.2430433111101</v>
+        <v>159.2430433111109</v>
       </c>
       <c r="F44" t="n">
-        <v>184.1887189805598</v>
+        <v>184.1887189805605</v>
       </c>
       <c r="G44" t="n">
-        <v>192.1430924780137</v>
+        <v>192.1430924780144</v>
       </c>
       <c r="H44" t="n">
-        <v>111.9503458108404</v>
+        <v>111.9503458108412</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>28.62054068460719</v>
+        <v>28.62054068460802</v>
       </c>
       <c r="V44" t="n">
-        <v>105.0649317089833</v>
+        <v>105.064931708984</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5536419562614</v>
+        <v>126.5536419562621</v>
       </c>
       <c r="X44" t="n">
-        <v>147.0437739173174</v>
+        <v>147.0437739173181</v>
       </c>
       <c r="Y44" t="n">
-        <v>163.5506118949019</v>
+        <v>163.5506118949027</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>3.237429493717406</v>
+        <v>3.237429493718145</v>
       </c>
       <c r="V45" t="n">
-        <v>10.11326038827363</v>
+        <v>10.11326038827437</v>
       </c>
       <c r="W45" t="n">
-        <v>29.00765639976797</v>
+        <v>29.00765639976871</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4.35301823369852</v>
+        <v>4.353018233699259</v>
       </c>
       <c r="U46" t="n">
-        <v>63.6201462834231</v>
+        <v>63.62014628342384</v>
       </c>
       <c r="V46" t="n">
-        <v>29.45031656267636</v>
+        <v>29.4503165626771</v>
       </c>
       <c r="W46" t="n">
-        <v>63.83567157543936</v>
+        <v>63.8356715754401</v>
       </c>
       <c r="X46" t="n">
-        <v>3.022328627885514</v>
+        <v>3.022328627886253</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>348.9614885435903</v>
+        <v>216.3614857015859</v>
       </c>
       <c r="C11" t="n">
-        <v>348.9614885435903</v>
+        <v>112.3015175880875</v>
       </c>
       <c r="D11" t="n">
-        <v>320.4214538150842</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E11" t="n">
-        <v>320.4214538150842</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F11" t="n">
-        <v>216.3614857015858</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G11" t="n">
-        <v>112.3015175880874</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H11" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77378125016713</v>
+        <v>20.77378125016699</v>
       </c>
       <c r="J11" t="n">
-        <v>20.77378125016713</v>
+        <v>122.7629559982068</v>
       </c>
       <c r="K11" t="n">
-        <v>20.77378125016713</v>
+        <v>167.230255420892</v>
       </c>
       <c r="L11" t="n">
-        <v>20.77378125016713</v>
+        <v>213.2584241655764</v>
       </c>
       <c r="M11" t="n">
-        <v>20.77378125016713</v>
+        <v>270.197662800493</v>
       </c>
       <c r="N11" t="n">
-        <v>122.7629559982069</v>
+        <v>372.1868375485328</v>
       </c>
       <c r="O11" t="n">
-        <v>219.6078959345563</v>
+        <v>372.1868375485328</v>
       </c>
       <c r="P11" t="n">
-        <v>321.597070682596</v>
+        <v>372.1868375485328</v>
       </c>
       <c r="Q11" t="n">
-        <v>321.597070682596</v>
+        <v>405.475616814013</v>
       </c>
       <c r="R11" t="n">
-        <v>405.4756168140128</v>
+        <v>405.475616814013</v>
       </c>
       <c r="S11" t="n">
         <v>412.0774737294536</v>
       </c>
       <c r="T11" t="n">
-        <v>395.8122039318175</v>
+        <v>395.8122039318174</v>
       </c>
       <c r="U11" t="n">
-        <v>348.9614885435903</v>
+        <v>395.8122039318174</v>
       </c>
       <c r="V11" t="n">
-        <v>348.9614885435903</v>
+        <v>395.8122039318174</v>
       </c>
       <c r="W11" t="n">
-        <v>348.9614885435903</v>
+        <v>395.8122039318174</v>
       </c>
       <c r="X11" t="n">
-        <v>348.9614885435903</v>
+        <v>395.8122039318174</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.9614885435903</v>
+        <v>320.4214538150843</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L12" t="n">
-        <v>8.241549474589071</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="M12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="N12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="O12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="P12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="R12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="S12" t="n">
-        <v>100.7498170115178</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="T12" t="n">
-        <v>106.471561079564</v>
+        <v>106.4715610795647</v>
       </c>
       <c r="U12" t="n">
-        <v>85.26035194476106</v>
+        <v>85.26035194476162</v>
       </c>
       <c r="V12" t="n">
-        <v>57.10385907808311</v>
+        <v>57.10385907808354</v>
       </c>
       <c r="W12" t="n">
-        <v>9.862117714946249</v>
+        <v>9.862117714946539</v>
       </c>
       <c r="X12" t="n">
-        <v>9.006232874478208</v>
+        <v>9.006232874478354</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.00659072978873</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C13" t="n">
-        <v>63.30864046144715</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D13" t="n">
-        <v>63.30864046144715</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E13" t="n">
-        <v>121.2154200606436</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F13" t="n">
-        <v>121.2154200606436</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M13" t="n">
-        <v>157.9905001763475</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N13" t="n">
-        <v>233.7783715817204</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="O13" t="n">
-        <v>233.7783715817204</v>
+        <v>205.6819474905203</v>
       </c>
       <c r="P13" t="n">
-        <v>256.4520989198091</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="Q13" t="n">
-        <v>256.4520989198091</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="R13" t="n">
-        <v>293.2390346673579</v>
+        <v>293.2390346673589</v>
       </c>
       <c r="S13" t="n">
-        <v>277.6847951033681</v>
+        <v>277.6847951033689</v>
       </c>
       <c r="T13" t="n">
-        <v>255.3467286554529</v>
+        <v>255.3467286554535</v>
       </c>
       <c r="U13" t="n">
-        <v>173.1428762987249</v>
+        <v>173.1428762987255</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4540034579028</v>
+        <v>125.4540034579032</v>
       </c>
       <c r="W13" t="n">
-        <v>43.03244878600697</v>
+        <v>43.03244878600725</v>
       </c>
       <c r="X13" t="n">
-        <v>22.0385132530544</v>
+        <v>22.03851325305455</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
       <c r="C14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
       <c r="D14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
       <c r="E14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
       <c r="F14" t="n">
-        <v>216.3614857015858</v>
+        <v>99.89756938895846</v>
       </c>
       <c r="G14" t="n">
-        <v>112.3015175880874</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H14" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77378125016708</v>
+        <v>20.77378125016694</v>
       </c>
       <c r="J14" t="n">
-        <v>20.77378125016708</v>
+        <v>77.80814725525774</v>
       </c>
       <c r="K14" t="n">
-        <v>20.77378125016708</v>
+        <v>122.275446677943</v>
       </c>
       <c r="L14" t="n">
-        <v>64.03144572092248</v>
+        <v>165.5331111486983</v>
       </c>
       <c r="M14" t="n">
-        <v>134.0564784972656</v>
+        <v>165.5331111486983</v>
       </c>
       <c r="N14" t="n">
-        <v>193.2481096251404</v>
+        <v>267.522285896738</v>
       </c>
       <c r="O14" t="n">
-        <v>247.111795698063</v>
+        <v>321.3859719696605</v>
       </c>
       <c r="P14" t="n">
-        <v>288.3082914171159</v>
+        <v>393.2581832722897</v>
       </c>
       <c r="Q14" t="n">
-        <v>321.5970706825962</v>
+        <v>393.2581832722897</v>
       </c>
       <c r="R14" t="n">
-        <v>405.4756168140128</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="S14" t="n">
         <v>412.0774737294536</v>
       </c>
       <c r="T14" t="n">
-        <v>395.8122039318174</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="U14" t="n">
-        <v>395.8122039318174</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="V14" t="n">
-        <v>291.752235818319</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="W14" t="n">
-        <v>291.752235818319</v>
+        <v>308.0175056159552</v>
       </c>
       <c r="X14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
       <c r="Y14" t="n">
-        <v>291.752235818319</v>
+        <v>203.9575375024568</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K15" t="n">
-        <v>8.241549474589071</v>
+        <v>106.471561079565</v>
       </c>
       <c r="L15" t="n">
-        <v>8.241549474589071</v>
+        <v>106.471561079565</v>
       </c>
       <c r="M15" t="n">
-        <v>8.241549474589071</v>
+        <v>106.471561079565</v>
       </c>
       <c r="N15" t="n">
-        <v>8.241549474589071</v>
+        <v>106.471561079565</v>
       </c>
       <c r="O15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="P15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="Q15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="R15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="S15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="T15" t="n">
-        <v>106.4715610795643</v>
+        <v>106.471561079565</v>
       </c>
       <c r="U15" t="n">
-        <v>85.26035194476128</v>
+        <v>85.26035194476185</v>
       </c>
       <c r="V15" t="n">
-        <v>57.10385907808328</v>
+        <v>57.10385907808372</v>
       </c>
       <c r="W15" t="n">
-        <v>9.862117714946365</v>
+        <v>9.862117714946654</v>
       </c>
       <c r="X15" t="n">
-        <v>9.006232874478266</v>
+        <v>9.006232874478412</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C16" t="n">
-        <v>45.54359920624744</v>
+        <v>45.54359920624729</v>
       </c>
       <c r="D16" t="n">
-        <v>45.54359920624744</v>
+        <v>45.54359920624729</v>
       </c>
       <c r="E16" t="n">
-        <v>103.4503788054439</v>
+        <v>45.54359920624729</v>
       </c>
       <c r="F16" t="n">
-        <v>103.4503788054439</v>
+        <v>104.4531642828451</v>
       </c>
       <c r="G16" t="n">
-        <v>140.2254589211477</v>
+        <v>104.4531642828451</v>
       </c>
       <c r="H16" t="n">
-        <v>184.3618028119907</v>
+        <v>148.589508173688</v>
       </c>
       <c r="I16" t="n">
-        <v>186.0021917188256</v>
+        <v>148.589508173688</v>
       </c>
       <c r="J16" t="n">
-        <v>186.0021917188256</v>
+        <v>148.589508173688</v>
       </c>
       <c r="K16" t="n">
-        <v>186.0021917188256</v>
+        <v>148.589508173688</v>
       </c>
       <c r="L16" t="n">
-        <v>186.0021917188256</v>
+        <v>195.0203529051247</v>
       </c>
       <c r="M16" t="n">
-        <v>186.0021917188256</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="N16" t="n">
-        <v>186.0021917188256</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="O16" t="n">
-        <v>186.0021917188256</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="P16" t="n">
-        <v>186.0021917188256</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="Q16" t="n">
-        <v>256.4520989198096</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="R16" t="n">
-        <v>293.2390346673583</v>
+        <v>293.2390346673592</v>
       </c>
       <c r="S16" t="n">
-        <v>277.6847951033684</v>
+        <v>277.6847951033693</v>
       </c>
       <c r="T16" t="n">
-        <v>255.3467286554531</v>
+        <v>255.3467286554538</v>
       </c>
       <c r="U16" t="n">
-        <v>173.1428762987252</v>
+        <v>173.1428762987257</v>
       </c>
       <c r="V16" t="n">
-        <v>125.454003457903</v>
+        <v>125.4540034579034</v>
       </c>
       <c r="W16" t="n">
-        <v>43.03244878600708</v>
+        <v>43.03244878600736</v>
       </c>
       <c r="X16" t="n">
-        <v>22.03851325305446</v>
+        <v>22.0385132530546</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>261.1752924896072</v>
+        <v>261.1752924896075</v>
       </c>
       <c r="C17" t="n">
-        <v>230.2306266320158</v>
+        <v>230.2306266320163</v>
       </c>
       <c r="D17" t="n">
-        <v>209.9827791080864</v>
+        <v>209.9827791080861</v>
       </c>
       <c r="E17" t="n">
-        <v>162.2123775926624</v>
+        <v>162.2123775926622</v>
       </c>
       <c r="F17" t="n">
-        <v>89.24432388587519</v>
+        <v>89.2443238858752</v>
       </c>
       <c r="G17" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H17" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I17" t="n">
-        <v>8.241549474589071</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="J17" t="n">
-        <v>8.241549474589071</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="K17" t="n">
-        <v>8.241549474589071</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="L17" t="n">
-        <v>8.241549474589071</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="M17" t="n">
-        <v>8.241549474589071</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="N17" t="n">
-        <v>110.2307242226288</v>
+        <v>212.2198989706686</v>
       </c>
       <c r="O17" t="n">
-        <v>110.2307242226288</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="P17" t="n">
-        <v>110.2307242226288</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.2307242226288</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="R17" t="n">
-        <v>125.6026171584032</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5917919064429</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="T17" t="n">
-        <v>329.5809666544827</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="U17" t="n">
         <v>412.0774737294536</v>
@@ -5552,13 +5552,13 @@
         <v>412.0774737294536</v>
       </c>
       <c r="W17" t="n">
-        <v>397.3266695421597</v>
+        <v>397.3266695421599</v>
       </c>
       <c r="X17" t="n">
-        <v>361.8787623639001</v>
+        <v>361.8787623639004</v>
       </c>
       <c r="Y17" t="n">
-        <v>309.7572814709087</v>
+        <v>309.757281470909</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="O18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="P18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="R18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="S18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="T18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="U18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="V18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="W18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="X18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="O19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="P19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="R19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="S19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="T19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="U19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="V19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="W19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="X19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>261.1752924896077</v>
+        <v>261.175292489608</v>
       </c>
       <c r="C20" t="n">
-        <v>230.2306266320164</v>
+        <v>230.2306266320165</v>
       </c>
       <c r="D20" t="n">
-        <v>209.9827791080864</v>
+        <v>209.9827791080863</v>
       </c>
       <c r="E20" t="n">
-        <v>162.2123775926625</v>
+        <v>162.2123775926624</v>
       </c>
       <c r="F20" t="n">
-        <v>89.24432388587513</v>
+        <v>89.2443238858752</v>
       </c>
       <c r="G20" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H20" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I20" t="n">
-        <v>110.2307242226288</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="J20" t="n">
-        <v>208.099124233374</v>
+        <v>110.2307242226289</v>
       </c>
       <c r="K20" t="n">
-        <v>310.0882989814138</v>
+        <v>125.6026171584032</v>
       </c>
       <c r="L20" t="n">
-        <v>412.0774737294536</v>
+        <v>125.6026171584032</v>
       </c>
       <c r="M20" t="n">
-        <v>412.0774737294536</v>
+        <v>125.6026171584032</v>
       </c>
       <c r="N20" t="n">
-        <v>412.0774737294536</v>
+        <v>227.591791906443</v>
       </c>
       <c r="O20" t="n">
-        <v>412.0774737294536</v>
+        <v>227.591791906443</v>
       </c>
       <c r="P20" t="n">
-        <v>412.0774737294536</v>
+        <v>227.591791906443</v>
       </c>
       <c r="Q20" t="n">
-        <v>412.0774737294536</v>
+        <v>329.5809666544828</v>
       </c>
       <c r="R20" t="n">
-        <v>412.0774737294536</v>
+        <v>329.5809666544828</v>
       </c>
       <c r="S20" t="n">
-        <v>412.0774737294536</v>
+        <v>329.5809666544828</v>
       </c>
       <c r="T20" t="n">
-        <v>412.0774737294536</v>
+        <v>329.5809666544828</v>
       </c>
       <c r="U20" t="n">
         <v>412.0774737294536</v>
@@ -5789,13 +5789,13 @@
         <v>412.0774737294536</v>
       </c>
       <c r="W20" t="n">
-        <v>397.3266695421599</v>
+        <v>397.3266695421598</v>
       </c>
       <c r="X20" t="n">
-        <v>361.8787623639004</v>
+        <v>361.8787623639009</v>
       </c>
       <c r="Y20" t="n">
-        <v>309.7572814709091</v>
+        <v>309.7572814709094</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="O21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="P21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="R21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="S21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="T21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="U21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="V21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="W21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="X21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="O22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="P22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="R22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="S22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="T22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="U22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="V22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="W22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="X22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>261.1752924896075</v>
+        <v>261.1752924896077</v>
       </c>
       <c r="C23" t="n">
-        <v>230.2306266320163</v>
+        <v>230.2306266320165</v>
       </c>
       <c r="D23" t="n">
-        <v>209.9827791080862</v>
+        <v>209.9827791080864</v>
       </c>
       <c r="E23" t="n">
-        <v>162.2123775926623</v>
+        <v>162.2123775926625</v>
       </c>
       <c r="F23" t="n">
-        <v>89.24432388587513</v>
+        <v>89.24432388587515</v>
       </c>
       <c r="G23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J23" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K23" t="n">
-        <v>99.29338952449558</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L23" t="n">
-        <v>99.29338952449558</v>
+        <v>106.1099494853343</v>
       </c>
       <c r="M23" t="n">
-        <v>99.29338952449558</v>
+        <v>106.1099494853343</v>
       </c>
       <c r="N23" t="n">
-        <v>99.29338952449558</v>
+        <v>106.1099494853343</v>
       </c>
       <c r="O23" t="n">
-        <v>99.29338952449558</v>
+        <v>208.0991242333741</v>
       </c>
       <c r="P23" t="n">
-        <v>99.29338952449558</v>
+        <v>208.0991242333741</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.29338952449558</v>
+        <v>208.0991242333741</v>
       </c>
       <c r="R23" t="n">
-        <v>201.2825642725353</v>
+        <v>208.0991242333741</v>
       </c>
       <c r="S23" t="n">
-        <v>303.2717390205751</v>
+        <v>310.0882989814139</v>
       </c>
       <c r="T23" t="n">
-        <v>405.2609137686148</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="U23" t="n">
-        <v>405.2609137686148</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="V23" t="n">
-        <v>412.0774737294535</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="W23" t="n">
-        <v>397.3266695421597</v>
+        <v>397.3266695421599</v>
       </c>
       <c r="X23" t="n">
-        <v>361.8787623639003</v>
+        <v>361.8787623639005</v>
       </c>
       <c r="Y23" t="n">
-        <v>309.7572814709089</v>
+        <v>309.7572814709091</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="C24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="D24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="E24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="F24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="G24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="H24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="I24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="J24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="K24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="L24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="M24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="N24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="O24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="P24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="R24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="S24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="T24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="U24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="V24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="W24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="X24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.241549474589071</v>
+        <v>412.0774737294536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="C25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="D25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="E25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="F25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="G25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="H25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="I25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="J25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="K25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="L25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="M25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="N25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="O25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="P25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="R25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="S25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="T25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="U25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="V25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="W25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="X25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.241549474589071</v>
+        <v>8.241549474589073</v>
       </c>
     </row>
     <row r="26">
@@ -6200,70 +6200,70 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1158.103997834313</v>
+        <v>1158.103997834314</v>
       </c>
       <c r="C26" t="n">
-        <v>983.3504094151966</v>
+        <v>983.3504094151975</v>
       </c>
       <c r="D26" t="n">
-        <v>819.2936393297419</v>
+        <v>819.2936393297427</v>
       </c>
       <c r="E26" t="n">
-        <v>627.7143152527938</v>
+        <v>627.7143152527942</v>
       </c>
       <c r="F26" t="n">
-        <v>410.937338984482</v>
+        <v>410.9373389844825</v>
       </c>
       <c r="G26" t="n">
-        <v>186.1256420116716</v>
+        <v>186.1256420116717</v>
       </c>
       <c r="H26" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I26" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J26" t="n">
-        <v>260.5176428751379</v>
+        <v>70.17347203141595</v>
       </c>
       <c r="K26" t="n">
-        <v>423.0124981239763</v>
+        <v>423.0124981239765</v>
       </c>
       <c r="L26" t="n">
-        <v>867.2225332240996</v>
+        <v>867.2225332240998</v>
       </c>
       <c r="M26" t="n">
-        <v>1356.647938241342</v>
+        <v>1072.659566131141</v>
       </c>
       <c r="N26" t="n">
-        <v>1508.576264761096</v>
+        <v>1119.318965483438</v>
       </c>
       <c r="O26" t="n">
-        <v>1926.899898508559</v>
+        <v>1537.6425992309</v>
       </c>
       <c r="P26" t="n">
-        <v>1926.899898508559</v>
+        <v>1884.887584264143</v>
       </c>
       <c r="Q26" t="n">
-        <v>2109.548913825764</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="R26" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S26" t="n">
-        <v>2109.785187015933</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T26" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U26" t="n">
         <v>2021.095828142533</v>
       </c>
       <c r="V26" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320258</v>
       </c>
       <c r="W26" t="n">
-        <v>1725.682142571439</v>
+        <v>1725.68214257144</v>
       </c>
       <c r="X26" t="n">
         <v>1546.425312831655</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="E27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="F27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="G27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="H27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="I27" t="n">
-        <v>42.316719450147</v>
+        <v>86.69027538487657</v>
       </c>
       <c r="J27" t="n">
-        <v>42.316719450147</v>
+        <v>102.7295661666941</v>
       </c>
       <c r="K27" t="n">
-        <v>42.316719450147</v>
+        <v>102.7295661666941</v>
       </c>
       <c r="L27" t="n">
-        <v>42.316719450147</v>
+        <v>102.7295661666941</v>
       </c>
       <c r="M27" t="n">
-        <v>42.316719450147</v>
+        <v>102.7295661666941</v>
       </c>
       <c r="N27" t="n">
-        <v>42.316719450147</v>
+        <v>102.7295661666941</v>
       </c>
       <c r="O27" t="n">
-        <v>42.316719450147</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="P27" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R27" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="S27" t="n">
-        <v>211.4289334685715</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="T27" t="n">
-        <v>204.4801652739671</v>
+        <v>204.4801652739673</v>
       </c>
       <c r="U27" t="n">
-        <v>170.4822692953951</v>
+        <v>170.4822692953952</v>
       </c>
       <c r="V27" t="n">
-        <v>129.5390895849481</v>
+        <v>129.5390895849482</v>
       </c>
       <c r="W27" t="n">
-        <v>69.51066137804224</v>
+        <v>69.51066137804231</v>
       </c>
       <c r="X27" t="n">
-        <v>55.86808969380517</v>
+        <v>55.86808969380521</v>
       </c>
       <c r="Y27" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.316719450147</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="C28" t="n">
-        <v>67.08653740622739</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="D28" t="n">
-        <v>110.3013899619191</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="E28" t="n">
-        <v>155.6759377855376</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0532710865576</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0532710865576</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="H28" t="n">
-        <v>233.6573832018226</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="I28" t="n">
-        <v>233.6573832018226</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="J28" t="n">
-        <v>233.6573832018226</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="K28" t="n">
-        <v>235.9793812317729</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="L28" t="n">
-        <v>244.7115937286695</v>
+        <v>54.62722991375101</v>
       </c>
       <c r="M28" t="n">
-        <v>316.7784371719554</v>
+        <v>126.6940733570369</v>
       </c>
       <c r="N28" t="n">
-        <v>392.5663085773283</v>
+        <v>340.1612148603951</v>
       </c>
       <c r="O28" t="n">
-        <v>392.5663085773283</v>
+        <v>394.1472852112104</v>
       </c>
       <c r="P28" t="n">
-        <v>392.5663085773283</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="Q28" t="n">
-        <v>392.5663085773283</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="R28" t="n">
-        <v>416.821012549299</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="S28" t="n">
-        <v>388.4800861415401</v>
+        <v>388.4800861415404</v>
       </c>
       <c r="T28" t="n">
-        <v>353.3553328498559</v>
+        <v>353.3553328498561</v>
       </c>
       <c r="U28" t="n">
-        <v>258.364793649359</v>
+        <v>258.3647936493591</v>
       </c>
       <c r="V28" t="n">
-        <v>197.8892339647678</v>
+        <v>197.8892339647679</v>
       </c>
       <c r="W28" t="n">
         <v>102.680992449103</v>
       </c>
       <c r="X28" t="n">
-        <v>68.90037007238136</v>
+        <v>68.90037007238141</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.316719450147</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="29">
@@ -6440,61 +6440,61 @@
         <v>1158.103997834313</v>
       </c>
       <c r="C29" t="n">
-        <v>983.3504094151972</v>
+        <v>983.3504094151974</v>
       </c>
       <c r="D29" t="n">
         <v>819.2936393297427</v>
       </c>
       <c r="E29" t="n">
-        <v>627.7143152527947</v>
+        <v>627.7143152527944</v>
       </c>
       <c r="F29" t="n">
-        <v>410.9373389844829</v>
+        <v>410.9373389844827</v>
       </c>
       <c r="G29" t="n">
-        <v>186.1256420116714</v>
+        <v>186.1256420116715</v>
       </c>
       <c r="H29" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I29" t="n">
-        <v>42.31671945014714</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J29" t="n">
-        <v>260.5176428751382</v>
+        <v>260.5176428751379</v>
       </c>
       <c r="K29" t="n">
-        <v>613.3566689676989</v>
+        <v>423.0124981239765</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.566704067822</v>
+        <v>867.2225332240998</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.464149242789</v>
+        <v>970.2156075954234</v>
       </c>
       <c r="N29" t="n">
-        <v>1460.752832919228</v>
+        <v>1309.663136327159</v>
       </c>
       <c r="O29" t="n">
-        <v>1466.29628487506</v>
+        <v>1727.986770074622</v>
       </c>
       <c r="P29" t="n">
-        <v>1813.541269908303</v>
+        <v>2075.231755107865</v>
       </c>
       <c r="Q29" t="n">
-        <v>2044.489658151511</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="R29" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S29" t="n">
-        <v>2109.785187015933</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T29" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U29" t="n">
-        <v>2021.095828142532</v>
+        <v>2021.095828142533</v>
       </c>
       <c r="V29" t="n">
         <v>1884.241869320258</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="M30" t="n">
-        <v>42.31671945014699</v>
+        <v>155.339479003689</v>
       </c>
       <c r="N30" t="n">
-        <v>42.31671945014699</v>
+        <v>155.339479003689</v>
       </c>
       <c r="O30" t="n">
-        <v>42.31671945014699</v>
+        <v>211.4289334685714</v>
       </c>
       <c r="P30" t="n">
-        <v>211.4289334685708</v>
+        <v>211.4289334685714</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.4289334685708</v>
+        <v>211.4289334685714</v>
       </c>
       <c r="R30" t="n">
-        <v>211.4289334685708</v>
+        <v>211.4289334685714</v>
       </c>
       <c r="S30" t="n">
-        <v>211.4289334685708</v>
+        <v>211.4289334685714</v>
       </c>
       <c r="T30" t="n">
-        <v>204.4801652739665</v>
+        <v>204.480165273967</v>
       </c>
       <c r="U30" t="n">
-        <v>170.4822692953946</v>
+        <v>170.482269295395</v>
       </c>
       <c r="V30" t="n">
-        <v>129.5390895849478</v>
+        <v>129.5390895849481</v>
       </c>
       <c r="W30" t="n">
-        <v>69.510661378042</v>
+        <v>69.5106613780422</v>
       </c>
       <c r="X30" t="n">
-        <v>55.86808969380505</v>
+        <v>55.86808969380515</v>
       </c>
       <c r="Y30" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L31" t="n">
-        <v>42.31671945014699</v>
+        <v>130.3087284130872</v>
       </c>
       <c r="M31" t="n">
-        <v>42.31671945014699</v>
+        <v>298.1147826381323</v>
       </c>
       <c r="N31" t="n">
-        <v>42.31671945014699</v>
+        <v>394.14728521121</v>
       </c>
       <c r="O31" t="n">
-        <v>203.8031143674873</v>
+        <v>394.14728521121</v>
       </c>
       <c r="P31" t="n">
-        <v>416.8210125492982</v>
+        <v>416.8210125492988</v>
       </c>
       <c r="Q31" t="n">
-        <v>416.8210125492982</v>
+        <v>416.8210125492988</v>
       </c>
       <c r="R31" t="n">
-        <v>416.8210125492982</v>
+        <v>416.8210125492988</v>
       </c>
       <c r="S31" t="n">
-        <v>388.4800861415395</v>
+        <v>388.48008614154</v>
       </c>
       <c r="T31" t="n">
-        <v>353.3553328498554</v>
+        <v>353.3553328498558</v>
       </c>
       <c r="U31" t="n">
-        <v>258.3647936493585</v>
+        <v>258.3647936493589</v>
       </c>
       <c r="V31" t="n">
-        <v>197.8892339647675</v>
+        <v>197.8892339647678</v>
       </c>
       <c r="W31" t="n">
-        <v>102.6809924491027</v>
+        <v>102.6809924491029</v>
       </c>
       <c r="X31" t="n">
-        <v>68.90037007238124</v>
+        <v>68.90037007238135</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="32">
@@ -6674,70 +6674,70 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1158.103997834313</v>
+        <v>1158.103997834314</v>
       </c>
       <c r="C32" t="n">
-        <v>983.3504094151971</v>
+        <v>983.3504094151975</v>
       </c>
       <c r="D32" t="n">
-        <v>819.2936393297424</v>
+        <v>819.2936393297427</v>
       </c>
       <c r="E32" t="n">
-        <v>627.714315252794</v>
+        <v>627.7143152527942</v>
       </c>
       <c r="F32" t="n">
-        <v>410.9373389844822</v>
+        <v>410.9373389844825</v>
       </c>
       <c r="G32" t="n">
         <v>186.1256420116715</v>
       </c>
       <c r="H32" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I32" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J32" t="n">
-        <v>260.517642875138</v>
+        <v>93.11199385478486</v>
       </c>
       <c r="K32" t="n">
-        <v>613.3566689676986</v>
+        <v>274.8022687523309</v>
       </c>
       <c r="L32" t="n">
-        <v>1057.566704067822</v>
+        <v>719.0123038524542</v>
       </c>
       <c r="M32" t="n">
-        <v>1057.566704067822</v>
+        <v>1018.093538025975</v>
       </c>
       <c r="N32" t="n">
-        <v>1408.430188392178</v>
+        <v>1307.382221702414</v>
       </c>
       <c r="O32" t="n">
-        <v>1636.409651295918</v>
+        <v>1656.640455718783</v>
       </c>
       <c r="P32" t="n">
-        <v>1983.654636329161</v>
+        <v>1813.541269908304</v>
       </c>
       <c r="Q32" t="n">
-        <v>2115.83597250735</v>
+        <v>2044.489658151512</v>
       </c>
       <c r="R32" t="n">
-        <v>2115.83597250735</v>
+        <v>2115.835972507351</v>
       </c>
       <c r="S32" t="n">
-        <v>2109.785187015933</v>
+        <v>2109.785187015934</v>
       </c>
       <c r="T32" t="n">
-        <v>2080.733230374528</v>
+        <v>2080.733230374529</v>
       </c>
       <c r="U32" t="n">
-        <v>2021.095828142532</v>
+        <v>2021.095828142533</v>
       </c>
       <c r="V32" t="n">
-        <v>1884.241869320257</v>
+        <v>1884.241869320258</v>
       </c>
       <c r="W32" t="n">
-        <v>1725.682142571439</v>
+        <v>1725.68214257144</v>
       </c>
       <c r="X32" t="n">
         <v>1546.425312831655</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C33" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D33" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E33" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F33" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G33" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H33" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I33" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J33" t="n">
-        <v>89.04237002441894</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K33" t="n">
-        <v>211.4289334685712</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L33" t="n">
-        <v>211.4289334685712</v>
+        <v>127.7307681331692</v>
       </c>
       <c r="M33" t="n">
-        <v>211.4289334685712</v>
+        <v>127.7307681331692</v>
       </c>
       <c r="N33" t="n">
-        <v>211.4289334685712</v>
+        <v>127.7307681331692</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4289334685712</v>
+        <v>127.7307681331692</v>
       </c>
       <c r="P33" t="n">
-        <v>211.4289334685712</v>
+        <v>127.7307681331692</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.4289334685712</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="R33" t="n">
-        <v>211.4289334685712</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="S33" t="n">
-        <v>211.4289334685712</v>
+        <v>211.4289334685717</v>
       </c>
       <c r="T33" t="n">
-        <v>204.4801652739668</v>
+        <v>204.4801652739673</v>
       </c>
       <c r="U33" t="n">
-        <v>170.4822692953949</v>
+        <v>170.4822692953952</v>
       </c>
       <c r="V33" t="n">
-        <v>129.539089584948</v>
+        <v>129.5390895849482</v>
       </c>
       <c r="W33" t="n">
-        <v>69.51066137804212</v>
+        <v>69.51066137804231</v>
       </c>
       <c r="X33" t="n">
-        <v>55.8680896938051</v>
+        <v>55.86808969380521</v>
       </c>
       <c r="Y33" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="C34" t="n">
-        <v>67.08653740622744</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="D34" t="n">
-        <v>110.3013899619192</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="E34" t="n">
-        <v>155.6759377855377</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="F34" t="n">
-        <v>155.6759377855377</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="G34" t="n">
-        <v>155.6759377855377</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="H34" t="n">
-        <v>155.6759377855377</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="I34" t="n">
-        <v>198.4318046213441</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="J34" t="n">
-        <v>198.4318046213441</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="K34" t="n">
-        <v>313.2049080764177</v>
+        <v>42.31671945014701</v>
       </c>
       <c r="L34" t="n">
-        <v>313.2049080764177</v>
+        <v>100.8145120955041</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2049080764177</v>
+        <v>172.88135553879</v>
       </c>
       <c r="N34" t="n">
-        <v>313.2049080764177</v>
+        <v>172.88135553879</v>
       </c>
       <c r="O34" t="n">
-        <v>313.2049080764177</v>
+        <v>394.1472852112104</v>
       </c>
       <c r="P34" t="n">
-        <v>392.5663085773278</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="Q34" t="n">
-        <v>392.5663085773278</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="R34" t="n">
-        <v>416.8210125492985</v>
+        <v>416.8210125492992</v>
       </c>
       <c r="S34" t="n">
-        <v>388.4800861415397</v>
+        <v>388.4800861415404</v>
       </c>
       <c r="T34" t="n">
-        <v>353.3553328498556</v>
+        <v>353.3553328498561</v>
       </c>
       <c r="U34" t="n">
-        <v>258.3647936493587</v>
+        <v>258.3647936493591</v>
       </c>
       <c r="V34" t="n">
-        <v>197.8892339647676</v>
+        <v>197.8892339647679</v>
       </c>
       <c r="W34" t="n">
-        <v>102.6809924491028</v>
+        <v>102.680992449103</v>
       </c>
       <c r="X34" t="n">
-        <v>68.90037007238129</v>
+        <v>68.90037007238141</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.31671945014699</v>
+        <v>42.31671945014701</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.4958572986998</v>
+        <v>965.4958572987048</v>
       </c>
       <c r="C35" t="n">
-        <v>821.4700340564212</v>
+        <v>821.4700340564256</v>
       </c>
       <c r="D35" t="n">
-        <v>688.1410291478038</v>
+        <v>688.1410291478073</v>
       </c>
       <c r="E35" t="n">
-        <v>527.2894702476926</v>
+        <v>527.2894702476954</v>
       </c>
       <c r="F35" t="n">
-        <v>341.2402591562181</v>
+        <v>341.24025915622</v>
       </c>
       <c r="G35" t="n">
-        <v>147.1563273602451</v>
+        <v>147.1563273602461</v>
       </c>
       <c r="H35" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I35" t="n">
-        <v>64.19145262537612</v>
+        <v>64.1914526253755</v>
       </c>
       <c r="J35" t="n">
-        <v>274.8139164359908</v>
+        <v>64.1914526253755</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6909110442318</v>
+        <v>447.1467613677534</v>
       </c>
       <c r="L35" t="n">
-        <v>597.6909110442318</v>
+        <v>507.9884767127483</v>
       </c>
       <c r="M35" t="n">
-        <v>597.6909110442318</v>
+        <v>929.6687051602789</v>
       </c>
       <c r="N35" t="n">
-        <v>1019.37113949176</v>
+        <v>1351.34893360781</v>
       </c>
       <c r="O35" t="n">
-        <v>1441.051367939288</v>
+        <v>1422.796670554972</v>
       </c>
       <c r="P35" t="n">
-        <v>1441.051367939288</v>
+        <v>1641.526789711241</v>
       </c>
       <c r="Q35" t="n">
-        <v>1702.116038832314</v>
+        <v>1641.526789711241</v>
       </c>
       <c r="R35" t="n">
-        <v>1702.116038832314</v>
+        <v>1677.930131042645</v>
       </c>
       <c r="S35" t="n">
-        <v>1702.116038832314</v>
+        <v>1702.116038832325</v>
       </c>
       <c r="T35" t="n">
-        <v>1703.758498777891</v>
+        <v>1703.758498777901</v>
       </c>
       <c r="U35" t="n">
-        <v>1674.848861722733</v>
+        <v>1674.848861722742</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.722668077295</v>
+        <v>1568.722668077303</v>
       </c>
       <c r="W35" t="n">
-        <v>1440.890706505314</v>
+        <v>1440.890706505322</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.361641942367</v>
+        <v>1292.361641942374</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.159003664688</v>
+        <v>1127.159003664694</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M36" t="n">
-        <v>76.8613783409707</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="N36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="O36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="P36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="R36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="S36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="T36" t="n">
-        <v>76.8613783409707</v>
+        <v>76.8613783409734</v>
       </c>
       <c r="U36" t="n">
-        <v>73.59124753923604</v>
+        <v>73.5912475392379</v>
       </c>
       <c r="V36" t="n">
-        <v>63.3758330056264</v>
+        <v>63.37583300562743</v>
       </c>
       <c r="W36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="X36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y36" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="N37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="O37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="P37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="Q37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="R37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="S37" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="T37" t="n">
-        <v>195.6190720456831</v>
+        <v>195.6190720456866</v>
       </c>
       <c r="U37" t="n">
-        <v>131.3562980220235</v>
+        <v>131.3562980220262</v>
       </c>
       <c r="V37" t="n">
-        <v>101.6085035142697</v>
+        <v>101.6085035142715</v>
       </c>
       <c r="W37" t="n">
-        <v>37.1280271754421</v>
+        <v>37.12802717544313</v>
       </c>
       <c r="X37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.07516997555783</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.4958572987007</v>
+        <v>965.4958572987051</v>
       </c>
       <c r="C38" t="n">
-        <v>821.4700340564222</v>
+        <v>821.4700340564257</v>
       </c>
       <c r="D38" t="n">
-        <v>688.1410291478047</v>
+        <v>688.1410291478076</v>
       </c>
       <c r="E38" t="n">
-        <v>527.2894702476935</v>
+        <v>527.2894702476956</v>
       </c>
       <c r="F38" t="n">
-        <v>341.2402591562191</v>
+        <v>341.2402591562202</v>
       </c>
       <c r="G38" t="n">
-        <v>147.1563273602451</v>
+        <v>147.1563273602461</v>
       </c>
       <c r="H38" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I38" t="n">
-        <v>64.19145262537614</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J38" t="n">
-        <v>64.19145262537614</v>
+        <v>282.3923760503664</v>
       </c>
       <c r="K38" t="n">
-        <v>241.6516538785536</v>
+        <v>665.3476847927443</v>
       </c>
       <c r="L38" t="n">
-        <v>302.4933692235493</v>
+        <v>919.2135490491457</v>
       </c>
       <c r="M38" t="n">
-        <v>724.1735976710777</v>
+        <v>993.736838558302</v>
       </c>
       <c r="N38" t="n">
-        <v>1145.853826118606</v>
+        <v>1070.512520560416</v>
       </c>
       <c r="O38" t="n">
-        <v>1567.534054566135</v>
+        <v>1492.192749007947</v>
       </c>
       <c r="P38" t="n">
-        <v>1616.482327306768</v>
+        <v>1600.922572311756</v>
       </c>
       <c r="Q38" t="n">
-        <v>1667.355157446488</v>
+        <v>1641.526789711242</v>
       </c>
       <c r="R38" t="n">
-        <v>1703.758498777892</v>
+        <v>1677.930131042645</v>
       </c>
       <c r="S38" t="n">
-        <v>1703.758498777892</v>
+        <v>1702.116038832325</v>
       </c>
       <c r="T38" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777902</v>
       </c>
       <c r="U38" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.848861722742</v>
       </c>
       <c r="V38" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077304</v>
       </c>
       <c r="W38" t="n">
-        <v>1440.890706505315</v>
+        <v>1440.890706505322</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942374</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664695</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="C39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="E39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="F39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="G39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="H39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="I39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="J39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="K39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="L39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="M39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="N39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="O39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="P39" t="n">
-        <v>34.07516997555785</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.86137834097073</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86137834097073</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="S39" t="n">
-        <v>76.86137834097073</v>
+        <v>53.55558339868779</v>
       </c>
       <c r="T39" t="n">
-        <v>76.86137834097073</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="U39" t="n">
-        <v>73.59124753923606</v>
+        <v>73.59124753923791</v>
       </c>
       <c r="V39" t="n">
-        <v>63.37583300562642</v>
+        <v>63.37583300562743</v>
       </c>
       <c r="W39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="X39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y39" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L40" t="n">
-        <v>92.57296262091489</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M40" t="n">
-        <v>200.01606016053</v>
+        <v>149.8779026120322</v>
       </c>
       <c r="N40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="O40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="P40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="Q40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="R40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="S40" t="n">
-        <v>200.01606016053</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="T40" t="n">
-        <v>195.6190720456831</v>
+        <v>195.6190720456866</v>
       </c>
       <c r="U40" t="n">
-        <v>131.3562980220235</v>
+        <v>131.3562980220262</v>
       </c>
       <c r="V40" t="n">
-        <v>101.6085035142697</v>
+        <v>101.6085035142715</v>
       </c>
       <c r="W40" t="n">
-        <v>37.12802717544212</v>
+        <v>37.12802717544314</v>
       </c>
       <c r="X40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>965.4958572987002</v>
+        <v>965.4958572987048</v>
       </c>
       <c r="C41" t="n">
-        <v>821.4700340564215</v>
+        <v>821.4700340564253</v>
       </c>
       <c r="D41" t="n">
-        <v>688.1410291478041</v>
+        <v>688.1410291478071</v>
       </c>
       <c r="E41" t="n">
-        <v>527.2894702476931</v>
+        <v>527.2894702476951</v>
       </c>
       <c r="F41" t="n">
-        <v>341.2402591562187</v>
+        <v>341.2402591562198</v>
       </c>
       <c r="G41" t="n">
-        <v>147.1563273602452</v>
+        <v>147.1563273602461</v>
       </c>
       <c r="H41" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I41" t="n">
-        <v>64.19145262537606</v>
+        <v>64.19145262537552</v>
       </c>
       <c r="J41" t="n">
-        <v>312.5086587001852</v>
+        <v>64.19145262537552</v>
       </c>
       <c r="K41" t="n">
-        <v>695.4639674425639</v>
+        <v>126.2428029223004</v>
       </c>
       <c r="L41" t="n">
-        <v>949.3298316989653</v>
+        <v>507.8643405318792</v>
       </c>
       <c r="M41" t="n">
-        <v>1040.387907529102</v>
+        <v>929.5445689794099</v>
       </c>
       <c r="N41" t="n">
-        <v>1462.068135976631</v>
+        <v>1351.224797426941</v>
       </c>
       <c r="O41" t="n">
-        <v>1533.515872923793</v>
+        <v>1531.87341297823</v>
       </c>
       <c r="P41" t="n">
-        <v>1592.296419517087</v>
+        <v>1590.653959571522</v>
       </c>
       <c r="Q41" t="n">
-        <v>1643.169249656807</v>
+        <v>1641.526789711242</v>
       </c>
       <c r="R41" t="n">
-        <v>1679.572590988211</v>
+        <v>1677.930131042645</v>
       </c>
       <c r="S41" t="n">
-        <v>1703.758498777892</v>
+        <v>1702.116038832325</v>
       </c>
       <c r="T41" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777902</v>
       </c>
       <c r="U41" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.848861722742</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077304</v>
       </c>
       <c r="W41" t="n">
-        <v>1440.890706505314</v>
+        <v>1440.890706505322</v>
       </c>
       <c r="X41" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942374</v>
       </c>
       <c r="Y41" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664694</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="N42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="O42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="P42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="R42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="S42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="T42" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="U42" t="n">
-        <v>73.59124753923624</v>
+        <v>73.59124753923791</v>
       </c>
       <c r="V42" t="n">
-        <v>63.3758330056265</v>
+        <v>63.37583300562743</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="X42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y42" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M43" t="n">
-        <v>34.07516997555785</v>
+        <v>149.8779026120322</v>
       </c>
       <c r="N43" t="n">
-        <v>200.0160601605304</v>
+        <v>149.8779026120322</v>
       </c>
       <c r="O43" t="n">
-        <v>200.0160601605304</v>
+        <v>149.8779026120322</v>
       </c>
       <c r="P43" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="R43" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="S43" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="T43" t="n">
-        <v>195.6190720456834</v>
+        <v>195.6190720456866</v>
       </c>
       <c r="U43" t="n">
-        <v>131.3562980220237</v>
+        <v>131.3562980220262</v>
       </c>
       <c r="V43" t="n">
-        <v>101.6085035142698</v>
+        <v>101.6085035142715</v>
       </c>
       <c r="W43" t="n">
-        <v>37.12802717544221</v>
+        <v>37.12802717544314</v>
       </c>
       <c r="X43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>965.4958572987006</v>
+        <v>965.4958572987051</v>
       </c>
       <c r="C44" t="n">
-        <v>821.4700340564218</v>
+        <v>821.4700340564257</v>
       </c>
       <c r="D44" t="n">
-        <v>688.1410291478044</v>
+        <v>688.1410291478076</v>
       </c>
       <c r="E44" t="n">
-        <v>527.2894702476932</v>
+        <v>527.2894702476956</v>
       </c>
       <c r="F44" t="n">
-        <v>341.2402591562186</v>
+        <v>341.2402591562203</v>
       </c>
       <c r="G44" t="n">
-        <v>147.1563273602452</v>
+        <v>147.1563273602461</v>
       </c>
       <c r="H44" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I44" t="n">
-        <v>64.19145262537606</v>
+        <v>64.19145262537552</v>
       </c>
       <c r="J44" t="n">
-        <v>145.1030096798321</v>
+        <v>92.04820520664448</v>
       </c>
       <c r="K44" t="n">
-        <v>145.1030096798321</v>
+        <v>475.0035139490224</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9447250248277</v>
+        <v>896.683742396553</v>
       </c>
       <c r="M44" t="n">
-        <v>205.9447250248277</v>
+        <v>1161.066014670419</v>
       </c>
       <c r="N44" t="n">
-        <v>627.6249534723561</v>
+        <v>1161.066014670419</v>
       </c>
       <c r="O44" t="n">
-        <v>962.2275032505712</v>
+        <v>1582.746243117949</v>
       </c>
       <c r="P44" t="n">
-        <v>1339.588770933632</v>
+        <v>1641.526789711242</v>
       </c>
       <c r="Q44" t="n">
-        <v>1600.653441826658</v>
+        <v>1641.526789711242</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.116038832315</v>
+        <v>1677.930131042645</v>
       </c>
       <c r="S44" t="n">
-        <v>1702.116038832315</v>
+        <v>1702.116038832325</v>
       </c>
       <c r="T44" t="n">
-        <v>1703.758498777892</v>
+        <v>1703.758498777902</v>
       </c>
       <c r="U44" t="n">
-        <v>1674.848861722734</v>
+        <v>1674.848861722742</v>
       </c>
       <c r="V44" t="n">
-        <v>1568.722668077296</v>
+        <v>1568.722668077304</v>
       </c>
       <c r="W44" t="n">
-        <v>1440.890706505315</v>
+        <v>1440.890706505322</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.361641942368</v>
+        <v>1292.361641942374</v>
       </c>
       <c r="Y44" t="n">
-        <v>1127.159003664689</v>
+        <v>1127.159003664695</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="E45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="F45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="G45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="H45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="I45" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="J45" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="K45" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="L45" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="M45" t="n">
-        <v>76.86137834097099</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="N45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="O45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="P45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="R45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="S45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="T45" t="n">
-        <v>76.86137834097099</v>
+        <v>76.86137834097342</v>
       </c>
       <c r="U45" t="n">
-        <v>73.59124753923624</v>
+        <v>73.59124753923791</v>
       </c>
       <c r="V45" t="n">
-        <v>63.3758330056265</v>
+        <v>63.37583300562743</v>
       </c>
       <c r="W45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="X45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="C46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="D46" t="n">
-        <v>34.07516997555785</v>
+        <v>107.4063051810672</v>
       </c>
       <c r="E46" t="n">
-        <v>34.07516997555785</v>
+        <v>107.4063051810672</v>
       </c>
       <c r="F46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="G46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="H46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="I46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="J46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="K46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="L46" t="n">
-        <v>34.07516997555785</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="M46" t="n">
-        <v>200.0160601605304</v>
+        <v>183.8999211319046</v>
       </c>
       <c r="N46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="O46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="P46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="Q46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="R46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="S46" t="n">
-        <v>200.0160601605304</v>
+        <v>200.0160601605344</v>
       </c>
       <c r="T46" t="n">
-        <v>195.6190720456834</v>
+        <v>195.6190720456866</v>
       </c>
       <c r="U46" t="n">
-        <v>131.3562980220237</v>
+        <v>131.3562980220262</v>
       </c>
       <c r="V46" t="n">
-        <v>101.6085035142698</v>
+        <v>101.6085035142715</v>
       </c>
       <c r="W46" t="n">
-        <v>37.12802717544221</v>
+        <v>37.12802717544314</v>
       </c>
       <c r="X46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.07516997555785</v>
+        <v>34.07516997555803</v>
       </c>
     </row>
   </sheetData>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>140.9584812516001</v>
+        <v>39.0521904725495</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>207.7241483769989</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>43.22984204057063</v>
+        <v>43.2298420405708</v>
       </c>
       <c r="O11" t="n">
-        <v>163.8114869692552</v>
+        <v>142.4884436642614</v>
       </c>
       <c r="P11" t="n">
-        <v>61.40674649392611</v>
+        <v>163.3130372729768</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>171.5451301283927</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8854,16 +8854,16 @@
         <v>103.3860221017998</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>140.9584812516001</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>160.0091951480955</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>218.1436330916427</v>
+        <v>147.4112767519022</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>248.1555012519848</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>30.98557129654189</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>171.3006296503229</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>57.17647411387103</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>104.3983137891471</v>
@@ -9094,13 +9094,13 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O16" t="n">
         <v>108.5102821731398</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>112.1038084270827</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>354.9234312034587</v>
       </c>
       <c r="N26" t="n">
-        <v>106.3322496640982</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>163.3130372729769</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,31 +9948,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>119.1631358103855</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>83.68361168878398</v>
+        <v>83.68361168878394</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>65.6153879335796</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>256.5378111485459</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>106.7149633312497</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,10 +10033,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L28" t="n">
-        <v>112.2064387653318</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
@@ -10045,10 +10045,10 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>108.5102821731398</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10118,13 +10118,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>70.1923619349775</v>
+        <v>251.4446852077846</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10185,31 +10185,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9618319903678</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>97.03390299193964</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>78.10243564664646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>256.5378111485451</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10273,22 +10273,22 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L31" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>105.7148695525912</v>
+        <v>82.94909519029136</v>
       </c>
       <c r="N31" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>151.2678861115542</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>147.4112767519022</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.5502916043297</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>220.6566943496692</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71739294811697</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10504,28 +10504,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>28.06390228546182</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>105.7148695525912</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>95.26431138448916</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>103.6075842802572</v>
       </c>
       <c r="K35" t="n">
-        <v>263.4602467791064</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>350.6635746852266</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>161.5652248110882</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,25 +10741,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L37" t="n">
         <v>103.3860221017998</v>
       </c>
       <c r="M37" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>95.26431138448916</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>57.03354245883725</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>116.5745969255069</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>353.7701934347157</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>50.45381485910738</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>5.207031498569417</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.68361168878391</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10984,7 +10984,7 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>16.7018043646262</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>417.1366480828966</v>
+        <v>348.3884307529459</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>332.9912445430974</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,22 +11133,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L42" t="n">
-        <v>83.68361168878391</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>65.61538793357951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11221,19 +11221,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>364.4833465682179</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>191.7767502673834</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>73.61099586908388</v>
       </c>
       <c r="O44" t="n">
-        <v>265.8129422535882</v>
+        <v>353.7701934347157</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>5.975134687883067</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>82.46949852711541</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71739294811697</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11452,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L46" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>95.26431138448916</v>
+        <v>111.5432396962364</v>
       </c>
       <c r="O46" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>112.1038084270827</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.8081824520665</v>
+        <v>74.7888140197032</v>
       </c>
       <c r="C11" t="n">
-        <v>160.3472325595934</v>
+        <v>57.32786412723017</v>
       </c>
       <c r="D11" t="n">
-        <v>121.5027480280477</v>
+        <v>46.73801397690558</v>
       </c>
       <c r="E11" t="n">
-        <v>177.0047108608477</v>
+        <v>177.0047108608478</v>
       </c>
       <c r="F11" t="n">
-        <v>98.93101809793393</v>
+        <v>201.9503865302975</v>
       </c>
       <c r="G11" t="n">
-        <v>106.8853915953878</v>
+        <v>209.9047600277513</v>
       </c>
       <c r="H11" t="n">
-        <v>26.69264492821461</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>46.38220823434494</v>
       </c>
       <c r="V11" t="n">
-        <v>122.8265992587208</v>
+        <v>122.8265992587209</v>
       </c>
       <c r="W11" t="n">
-        <v>144.3153095059989</v>
+        <v>144.315309505999</v>
       </c>
       <c r="X11" t="n">
-        <v>164.8054414670549</v>
+        <v>164.8054414670551</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.3122794446395</v>
+        <v>106.675436829074</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.8081824520665</v>
+        <v>177.8081824520667</v>
       </c>
       <c r="C14" t="n">
-        <v>160.3472325595935</v>
+        <v>160.3472325595936</v>
       </c>
       <c r="D14" t="n">
-        <v>149.7573824092689</v>
+        <v>149.757382409269</v>
       </c>
       <c r="E14" t="n">
-        <v>177.0047108608477</v>
+        <v>177.0047108608479</v>
       </c>
       <c r="F14" t="n">
-        <v>127.3135439147316</v>
+        <v>98.9310180979341</v>
       </c>
       <c r="G14" t="n">
-        <v>106.8853915953878</v>
+        <v>119.1653003125257</v>
       </c>
       <c r="H14" t="n">
-        <v>26.69264492821466</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>16.10261709965994</v>
       </c>
       <c r="U14" t="n">
-        <v>46.38220823434486</v>
+        <v>46.382208234345</v>
       </c>
       <c r="V14" t="n">
-        <v>19.80723082635745</v>
+        <v>122.826599258721</v>
       </c>
       <c r="W14" t="n">
-        <v>144.315309505999</v>
+        <v>41.29594107363567</v>
       </c>
       <c r="X14" t="n">
-        <v>164.805441467055</v>
+        <v>61.7860730346917</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.3122794446395</v>
+        <v>181.3122794446397</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.318590178329032e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790373.67715089</v>
+        <v>790373.6771508902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>790373.67715089</v>
+        <v>790373.6771508901</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>882619.902604105</v>
+        <v>882619.9026041048</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1010982.490933994</v>
+        <v>1010982.490933995</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959305.0033623647</v>
+        <v>959305.0033623661</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959305.0033623647</v>
+        <v>959305.0033623661</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959305.0033623648</v>
+        <v>959305.0033623661</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959305.0033623648</v>
+        <v>959305.0033623661</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340012</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.528634001</v>
+        <v>553011.5286340013</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
       </c>
       <c r="E2" t="n">
-        <v>474552.1470363856</v>
+        <v>474552.1470363858</v>
       </c>
       <c r="F2" t="n">
         <v>474552.1470363855</v>
       </c>
       <c r="G2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="H2" t="n">
         <v>554203.1946583916</v>
@@ -26335,25 +26335,25 @@
         <v>554203.1946583916</v>
       </c>
       <c r="J2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="K2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.194658392</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>289090.9969243214</v>
+        <v>289090.9969243213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>103769.6106884624</v>
+        <v>103769.6106884625</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161488.4078639648</v>
+        <v>161488.4078639647</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>103769.6106884624</v>
+        <v>103769.6106884625</v>
       </c>
       <c r="M3" t="n">
-        <v>24336.39002005511</v>
+        <v>24336.39002005452</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>50043.86070040373</v>
+        <v>50043.86070040366</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>362546.603349822</v>
+        <v>362546.6033498219</v>
       </c>
       <c r="F4" t="n">
         <v>362546.603349822</v>
@@ -26439,10 +26439,10 @@
         <v>428069.040467896</v>
       </c>
       <c r="J4" t="n">
-        <v>436259.1448627572</v>
+        <v>436259.1448627571</v>
       </c>
       <c r="K4" t="n">
-        <v>436259.1448627572</v>
+        <v>436259.1448627571</v>
       </c>
       <c r="L4" t="n">
         <v>436259.1448627571</v>
@@ -26451,10 +26451,10 @@
         <v>433189.2498249456</v>
       </c>
       <c r="N4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249457</v>
       </c>
       <c r="O4" t="n">
-        <v>433189.2498249456</v>
+        <v>433189.2498249457</v>
       </c>
       <c r="P4" t="n">
         <v>433189.2498249456</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26052.73677594694</v>
+        <v>26052.73677594693</v>
       </c>
       <c r="F5" t="n">
-        <v>26052.73677594694</v>
+        <v>26052.73677594693</v>
       </c>
       <c r="G5" t="n">
         <v>36957.49602715737</v>
@@ -26488,28 +26488,28 @@
         <v>36957.49602715737</v>
       </c>
       <c r="I5" t="n">
-        <v>36957.49602715737</v>
+        <v>36957.49602715738</v>
       </c>
       <c r="J5" t="n">
         <v>50885.65162086484</v>
       </c>
       <c r="K5" t="n">
-        <v>50885.65162086484</v>
+        <v>50885.65162086485</v>
       </c>
       <c r="L5" t="n">
         <v>50885.65162086484</v>
       </c>
       <c r="M5" t="n">
-        <v>47179.49398592208</v>
+        <v>47179.49398592217</v>
       </c>
       <c r="N5" t="n">
-        <v>47179.4939859221</v>
+        <v>47179.49398592218</v>
       </c>
       <c r="O5" t="n">
-        <v>47179.49398592209</v>
+        <v>47179.49398592218</v>
       </c>
       <c r="P5" t="n">
-        <v>47179.49398592209</v>
+        <v>47179.49398592218</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51767.96870226981</v>
+        <v>51763.55512440181</v>
       </c>
       <c r="C6" t="n">
-        <v>51767.96870226981</v>
+        <v>51763.55512440193</v>
       </c>
       <c r="D6" t="n">
-        <v>51767.9687022697</v>
+        <v>51763.55512440158</v>
       </c>
       <c r="E6" t="n">
-        <v>-203138.1900137047</v>
+        <v>-203433.1938937859</v>
       </c>
       <c r="F6" t="n">
-        <v>85952.80691061668</v>
+        <v>85657.80303053519</v>
       </c>
       <c r="G6" t="n">
-        <v>-14592.95252512427</v>
+        <v>-14592.95252512444</v>
       </c>
       <c r="H6" t="n">
         <v>89176.65816333823</v>
@@ -26543,25 +26543,25 @@
         <v>89176.65816333823</v>
       </c>
       <c r="J6" t="n">
-        <v>-94430.00968919575</v>
+        <v>-94430.00968919517</v>
       </c>
       <c r="K6" t="n">
-        <v>67058.39817476881</v>
+        <v>67058.39817476962</v>
       </c>
       <c r="L6" t="n">
-        <v>-36711.21251369329</v>
+        <v>-36711.21251369247</v>
       </c>
       <c r="M6" t="n">
-        <v>49498.06082746904</v>
+        <v>49498.06082746918</v>
       </c>
       <c r="N6" t="n">
-        <v>73834.45084752361</v>
+        <v>73834.45084752353</v>
       </c>
       <c r="O6" t="n">
-        <v>23790.59014712011</v>
+        <v>23790.59014711996</v>
       </c>
       <c r="P6" t="n">
-        <v>73834.45084752385</v>
+        <v>73834.45084752365</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F2" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="G2" t="n">
         <v>334.6376725719921</v>
@@ -26707,25 +26707,25 @@
         <v>334.6376725719921</v>
       </c>
       <c r="J2" t="n">
+        <v>192.2668392360827</v>
+      </c>
+      <c r="K2" t="n">
         <v>192.2668392360828</v>
       </c>
-      <c r="K2" t="n">
-        <v>192.2668392360829</v>
-      </c>
       <c r="L2" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M2" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N2" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="O2" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="P2" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
     </row>
     <row r="3">
@@ -26759,7 +26759,7 @@
         <v>117.4891711474713</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4891711474712</v>
+        <v>117.4891711474713</v>
       </c>
       <c r="K3" t="n">
         <v>117.4891711474713</v>
@@ -26811,25 +26811,25 @@
         <v>103.0193684323634</v>
       </c>
       <c r="J4" t="n">
-        <v>528.9589931268375</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="K4" t="n">
-        <v>528.9589931268374</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="L4" t="n">
-        <v>528.9589931268374</v>
+        <v>528.9589931268376</v>
       </c>
       <c r="M4" t="n">
-        <v>425.9396246944728</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="N4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="O4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="P4" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944754</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>129.712013360578</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.55482587550475</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.712013360578</v>
+        <v>129.7120133605781</v>
       </c>
       <c r="M2" t="n">
-        <v>30.42048752506889</v>
+        <v>30.42048752506815</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550466</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>129.712013360578</v>
+        <v>129.7120133605782</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.55482587550475</v>
+        <v>62.55482587550458</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="C11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="D11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="E11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="F11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="G11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="H11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="I11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>204.925659211414</v>
       </c>
       <c r="K11" t="n">
-        <v>160.0091951480955</v>
+        <v>204.925659211414</v>
       </c>
       <c r="L11" t="n">
-        <v>161.2310486348935</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>147.4112767519022</v>
+        <v>204.925659211414</v>
       </c>
       <c r="N11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="O11" t="n">
-        <v>84.52958018501424</v>
+        <v>8.029451837129853</v>
       </c>
       <c r="P11" t="n">
-        <v>204.9256592114141</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>171.3006296503229</v>
+        <v>204.925659211414</v>
       </c>
       <c r="R11" t="n">
-        <v>204.9256592114141</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="12">
@@ -28196,10 +28196,10 @@
         <v>97.03390299193964</v>
       </c>
       <c r="L12" t="n">
-        <v>83.68361168878391</v>
+        <v>182.9058456332038</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>78.10243564664646</v>
       </c>
       <c r="N12" t="n">
         <v>65.61538793357951</v>
@@ -28214,28 +28214,28 @@
         <v>107.7232378871913</v>
       </c>
       <c r="R12" t="n">
-        <v>84.46748786242044</v>
+        <v>129.9891576737413</v>
       </c>
       <c r="S12" t="n">
         <v>166.9891461999742</v>
       </c>
       <c r="T12" t="n">
-        <v>204.9256592114141</v>
+        <v>199.1461197487412</v>
       </c>
       <c r="U12" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V12" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W12" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X12" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="13">
@@ -28245,22 +28245,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.7764662983006</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>204.9256592114141</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>204.9256592114141</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>204.9256592114141</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H13" t="n">
         <v>160.343493665108</v>
@@ -28269,7 +28269,7 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J13" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K13" t="n">
         <v>104.3983137891471</v>
@@ -28278,43 +28278,43 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>105.7148695525912</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>198.2836798168526</v>
       </c>
       <c r="O13" t="n">
-        <v>108.5102821731398</v>
+        <v>204.925659211414</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>200.5453106259095</v>
       </c>
       <c r="Q13" t="n">
         <v>133.7641367861777</v>
       </c>
       <c r="R13" t="n">
-        <v>204.9256592114141</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="T13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="U13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="V13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="W13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="X13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9256592114141</v>
+        <v>204.925659211414</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="C14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="D14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="E14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="F14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="G14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="H14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="I14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>198.568951963813</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="L14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>204.9256592114141</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="P14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.9256592114141</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="S14" t="n">
-        <v>204.9256592114141</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="U14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="V14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="W14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="X14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
     </row>
     <row r="15">
@@ -28430,7 +28430,7 @@
         <v>102.9618319903678</v>
       </c>
       <c r="K15" t="n">
-        <v>39.8574288780686</v>
+        <v>196.2561369363598</v>
       </c>
       <c r="L15" t="n">
         <v>83.68361168878391</v>
@@ -28439,10 +28439,10 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O15" t="n">
-        <v>181.6917324715348</v>
+        <v>82.46949852711541</v>
       </c>
       <c r="P15" t="n">
         <v>85.71739294811697</v>
@@ -28460,19 +28460,19 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U15" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="V15" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="W15" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="X15" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
     </row>
     <row r="16">
@@ -28485,73 +28485,73 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>204.9256592114141</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="G16" t="n">
-        <v>204.9256592114141</v>
+        <v>167.7791136399961</v>
       </c>
       <c r="H16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="I16" t="n">
-        <v>150.7360534492429</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J16" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>103.3860221017998</v>
+        <v>150.2858652648672</v>
       </c>
       <c r="M16" t="n">
-        <v>105.7148695525912</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="N16" t="n">
-        <v>95.26431138448916</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>112.1038084270827</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.9256592114141</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R16" t="n">
-        <v>204.9256592114141</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="T16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="U16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="V16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="W16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="X16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9256592114141</v>
+        <v>204.9256592114139</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>334.6376725719921</v>
       </c>
       <c r="I17" t="n">
-        <v>192.2668392360827</v>
+        <v>295.2862076684461</v>
       </c>
       <c r="J17" t="n">
         <v>140.9584812516001</v>
@@ -28600,7 +28600,7 @@
         <v>248.1555012519848</v>
       </c>
       <c r="O17" t="n">
-        <v>150.5178955013912</v>
+        <v>249.3748652092146</v>
       </c>
       <c r="P17" t="n">
         <v>163.3130372729768</v>
@@ -28609,16 +28609,16 @@
         <v>171.3006296503229</v>
       </c>
       <c r="R17" t="n">
-        <v>201.4434394928386</v>
+        <v>185.9162749112483</v>
       </c>
       <c r="S17" t="n">
-        <v>301.2764853049484</v>
+        <v>198.257116872585</v>
       </c>
       <c r="T17" t="n">
-        <v>324.0476447434372</v>
+        <v>324.0476447434373</v>
       </c>
       <c r="U17" t="n">
-        <v>334.6376725719921</v>
+        <v>251.3078674457589</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -28822,19 +28822,19 @@
         <v>295.2862076684461</v>
       </c>
       <c r="J20" t="n">
-        <v>239.8154509594235</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K20" t="n">
-        <v>263.0285635804589</v>
+        <v>175.5363597296858</v>
       </c>
       <c r="L20" t="n">
-        <v>264.2504170672568</v>
+        <v>161.2310486348935</v>
       </c>
       <c r="M20" t="n">
         <v>147.4112767519022</v>
       </c>
       <c r="N20" t="n">
-        <v>145.1361328196214</v>
+        <v>248.1555012519848</v>
       </c>
       <c r="O20" t="n">
         <v>150.5178955013912</v>
@@ -28843,7 +28843,7 @@
         <v>163.3130372729768</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.3006296503229</v>
+        <v>274.3199980826863</v>
       </c>
       <c r="R20" t="n">
         <v>185.9162749112483</v>
@@ -28855,7 +28855,7 @@
         <v>221.0282763110739</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3078674457589</v>
+        <v>334.6376725719921</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -29062,10 +29062,10 @@
         <v>140.9584812516001</v>
       </c>
       <c r="K23" t="n">
-        <v>251.9807507540617</v>
+        <v>160.0091951480955</v>
       </c>
       <c r="L23" t="n">
-        <v>161.2310486348935</v>
+        <v>260.0880183427169</v>
       </c>
       <c r="M23" t="n">
         <v>147.4112767519022</v>
@@ -29074,7 +29074,7 @@
         <v>145.1361328196214</v>
       </c>
       <c r="O23" t="n">
-        <v>150.5178955013912</v>
+        <v>253.5372639337546</v>
       </c>
       <c r="P23" t="n">
         <v>163.3130372729768</v>
@@ -29083,19 +29083,19 @@
         <v>171.3006296503229</v>
       </c>
       <c r="R23" t="n">
-        <v>288.9356433436117</v>
+        <v>185.9162749112483</v>
       </c>
       <c r="S23" t="n">
         <v>301.2764853049484</v>
       </c>
       <c r="T23" t="n">
-        <v>324.0476447434372</v>
+        <v>324.0476447434373</v>
       </c>
       <c r="U23" t="n">
         <v>251.3078674457589</v>
       </c>
       <c r="V23" t="n">
-        <v>334.6376725719921</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>334.6376725719921</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J26" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M26" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="O26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.4795938562821</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R26" t="n">
-        <v>192.2668392360828</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y26" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="27">
@@ -29357,7 +29357,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -29372,55 +29372,55 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I27" t="n">
-        <v>90.82153100464483</v>
+        <v>80.69578385605989</v>
       </c>
       <c r="J27" t="n">
-        <v>102.9618319903679</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>97.0339029919397</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.10243564664654</v>
+        <v>78.10243564664648</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>65.61538793357953</v>
       </c>
       <c r="O27" t="n">
-        <v>82.46949852711549</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>85.71739294811698</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.7232378871913</v>
+        <v>1.008274555941582</v>
       </c>
       <c r="R27" t="n">
-        <v>84.46748786242047</v>
+        <v>84.46748786242046</v>
       </c>
       <c r="S27" t="n">
         <v>166.9891461999742</v>
       </c>
       <c r="T27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y27" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C28" t="n">
-        <v>192.2668392360828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>192.2668392360828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>192.2668392360828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>192.2668392360828</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.7791136399961</v>
       </c>
       <c r="H28" t="n">
-        <v>192.2668392360828</v>
+        <v>160.343493665108</v>
       </c>
       <c r="I28" t="n">
         <v>149.0790949574905</v>
       </c>
       <c r="J28" t="n">
-        <v>112.0165151440866</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>139.0699697959448</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>112.1038084270828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.42117840842624</v>
+        <v>68.42117840842621</v>
       </c>
       <c r="R28" t="n">
-        <v>192.2668392360828</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="C29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="D29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="E29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="F29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="G29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="H29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="I29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="J29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="K29" t="n">
-        <v>192.2668392360829</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="M29" t="n">
-        <v>192.2668392360829</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>50.66550005585519</v>
       </c>
       <c r="O29" t="n">
-        <v>156.1173419214235</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="P29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Q29" t="n">
-        <v>192.2668392360829</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>192.2668392360829</v>
+        <v>120.1998550382659</v>
       </c>
       <c r="S29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="T29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="U29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="V29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="W29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="X29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Y29" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
     </row>
     <row r="30">
@@ -29609,31 +29609,31 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I30" t="n">
-        <v>80.69578385605989</v>
+        <v>90.82153100464481</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L30" t="n">
         <v>83.68361168878391</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>139.1255131381077</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R30" t="n">
         <v>129.9891576737413</v>
@@ -29642,22 +29642,22 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="U30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="V30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="W30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="X30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Y30" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
     </row>
     <row r="31">
@@ -29697,46 +29697,46 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="O31" t="n">
-        <v>108.5861864308334</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P31" t="n">
-        <v>192.2668392360829</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R31" t="n">
         <v>167.7671382542942</v>
       </c>
       <c r="S31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="T31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="U31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="V31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="W31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="X31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.2668392360829</v>
+        <v>192.2668392360828</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="C32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="D32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="E32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="F32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="G32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="H32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="I32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="K32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="L32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>62.19676833122858</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>122.503809204675</v>
       </c>
       <c r="P32" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R32" t="n">
-        <v>120.1998550382659</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="S32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y32" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>192.2668392360828</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0908046064029</v>
@@ -29852,25 +29852,25 @@
         <v>102.9618319903678</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>97.03390299193964</v>
       </c>
       <c r="L33" t="n">
-        <v>83.68361168878391</v>
+        <v>169.9604285403215</v>
       </c>
       <c r="M33" t="n">
         <v>78.10243564664646</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>82.46949852711541</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.7232378871913</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="R33" t="n">
         <v>129.9891576737413</v>
@@ -29879,22 +29879,22 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="34">
@@ -29907,13 +29907,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>192.2668392360828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>192.2668392360828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>192.2668392360828</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29925,16 +29925,16 @@
         <v>160.343493665108</v>
       </c>
       <c r="I34" t="n">
-        <v>192.2668392360828</v>
+        <v>149.0790949574905</v>
       </c>
       <c r="J34" t="n">
-        <v>112.0165151440865</v>
+        <v>78.38027382136319</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2668392360828</v>
+        <v>104.3983137891471</v>
       </c>
       <c r="L34" t="n">
-        <v>103.3860221017998</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>108.5102821731398</v>
+        <v>168.9695548703083</v>
       </c>
       <c r="P34" t="n">
-        <v>192.2668392360828</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842621</v>
       </c>
       <c r="R34" t="n">
-        <v>192.2668392360828</v>
+        <v>167.7671382542942</v>
       </c>
       <c r="S34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="T34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="U34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="V34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="W34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="X34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.2668392360828</v>
+        <v>192.2668392360827</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="C35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="D35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="E35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="F35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="H35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="I35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="J35" t="n">
-        <v>184.6118295245917</v>
+        <v>37.35089697134285</v>
       </c>
       <c r="K35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="L35" t="n">
-        <v>161.2310486348935</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="M35" t="n">
-        <v>147.4112767519022</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N35" t="n">
-        <v>133.72883310211</v>
+        <v>133.7288331021126</v>
       </c>
       <c r="O35" t="n">
-        <v>195.6573389331186</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="P35" t="n">
-        <v>163.3130372729768</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.6873267611517</v>
+        <v>171.3006296503229</v>
       </c>
       <c r="R35" t="n">
-        <v>185.9162749112483</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="S35" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y35" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
     </row>
     <row r="36">
@@ -30074,7 +30074,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>188.2876046816797</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0908046064029</v>
@@ -30083,7 +30083,7 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I36" t="n">
-        <v>90.82153100464481</v>
+        <v>80.69578385605989</v>
       </c>
       <c r="J36" t="n">
         <v>102.9618319903678</v>
@@ -30098,7 +30098,7 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N36" t="n">
-        <v>65.61538793357951</v>
+        <v>108.8337802218779</v>
       </c>
       <c r="O36" t="n">
         <v>82.46949852711541</v>
@@ -30107,10 +30107,10 @@
         <v>85.71739294811697</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.7232378871913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>129.9891576737413</v>
+        <v>84.46748786242044</v>
       </c>
       <c r="S36" t="n">
         <v>166.9891461999742</v>
@@ -30119,13 +30119,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W36" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -30165,25 +30165,25 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J37" t="n">
-        <v>78.38027382136319</v>
+        <v>112.0165151440865</v>
       </c>
       <c r="K37" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.5102821731398</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>144.7143059059428</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Q37" t="n">
         <v>133.7641367861777</v>
@@ -30195,19 +30195,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X37" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="C38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="D38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="E38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="F38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="H38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="I38" t="n">
-        <v>222.6873267611517</v>
+        <v>192.2668392360827</v>
       </c>
       <c r="J38" t="n">
-        <v>140.9584812516001</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="K38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="L38" t="n">
-        <v>222.6873267611517</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>123.8373679535428</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N38" t="n">
-        <v>133.7288331021103</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="O38" t="n">
-        <v>195.6573389331189</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="P38" t="n">
-        <v>212.7557370109899</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.6873267611517</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="S38" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="T38" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y38" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>186.210368925756</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -30323,13 +30323,13 @@
         <v>90.82153100464481</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9618319903678</v>
+        <v>97.75480049179841</v>
       </c>
       <c r="K39" t="n">
         <v>97.03390299193964</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.68361168878391</v>
       </c>
       <c r="M39" t="n">
         <v>78.10243564664646</v>
@@ -30344,7 +30344,7 @@
         <v>85.71739294811697</v>
       </c>
       <c r="Q39" t="n">
-        <v>150.9416301754871</v>
+        <v>107.7232378871913</v>
       </c>
       <c r="R39" t="n">
         <v>129.9891576737413</v>
@@ -30353,16 +30353,16 @@
         <v>166.9891461999742</v>
       </c>
       <c r="T39" t="n">
-        <v>199.1461197487412</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W39" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30408,22 +30408,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M40" t="n">
-        <v>214.2432509057377</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N40" t="n">
-        <v>95.26431138448916</v>
+        <v>145.9089149688348</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.42117840842621</v>
+        <v>133.7641367861777</v>
       </c>
       <c r="R40" t="n">
         <v>167.7671382542942</v>
@@ -30432,19 +30432,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X40" t="n">
-        <v>222.6873267611517</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="C41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="D41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="E41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="F41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="G41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="I41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="J41" t="n">
-        <v>222.6873267611516</v>
+        <v>140.9584812516001</v>
       </c>
       <c r="K41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>129.0461347001793</v>
       </c>
       <c r="M41" t="n">
-        <v>222.6873267611516</v>
+        <v>123.8373679535451</v>
       </c>
       <c r="N41" t="n">
-        <v>153.9391094311978</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="O41" t="n">
-        <v>222.6873267611516</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="R41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="S41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="T41" t="n">
-        <v>221.0282763110739</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y41" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
     </row>
     <row r="42">
@@ -30557,22 +30557,22 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I42" t="n">
-        <v>134.0399232929409</v>
+        <v>80.69578385605989</v>
       </c>
       <c r="J42" t="n">
         <v>102.9618319903678</v>
       </c>
       <c r="K42" t="n">
-        <v>97.03390299193964</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.68361168878391</v>
       </c>
       <c r="M42" t="n">
         <v>78.10243564664646</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>65.61538793357951</v>
       </c>
       <c r="O42" t="n">
         <v>82.46949852711541</v>
@@ -30584,7 +30584,7 @@
         <v>107.7232378871913</v>
       </c>
       <c r="R42" t="n">
-        <v>129.9891576737413</v>
+        <v>173.2075499620396</v>
       </c>
       <c r="S42" t="n">
         <v>166.9891461999742</v>
@@ -30593,13 +30593,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W42" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30645,19 +30645,19 @@
         <v>104.3983137891471</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N43" t="n">
-        <v>91.06365533292893</v>
+        <v>95.26431138448916</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>162.7484120114284</v>
       </c>
       <c r="Q43" t="n">
         <v>133.7641367861777</v>
@@ -30669,19 +30669,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X43" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="C44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="D44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="E44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="F44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="G44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="I44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="J44" t="n">
-        <v>222.6873267611516</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>160.0091951480955</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="L44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="M44" t="n">
-        <v>147.4112767519022</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="N44" t="n">
-        <v>133.7288331021103</v>
+        <v>71.52513695053747</v>
       </c>
       <c r="O44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="P44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.6873267611516</v>
+        <v>171.3006296503229</v>
       </c>
       <c r="R44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="S44" t="n">
-        <v>198.257116872585</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="T44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y44" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
     </row>
     <row r="45">
@@ -30794,10 +30794,10 @@
         <v>109.7947729641688</v>
       </c>
       <c r="I45" t="n">
-        <v>123.914176144356</v>
+        <v>90.82153100464481</v>
       </c>
       <c r="J45" t="n">
-        <v>96.98669730248476</v>
+        <v>102.9618319903678</v>
       </c>
       <c r="K45" t="n">
         <v>97.03390299193964</v>
@@ -30809,19 +30809,19 @@
         <v>78.10243564664646</v>
       </c>
       <c r="N45" t="n">
-        <v>65.61538793357951</v>
+        <v>108.8337802218779</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>82.46949852711541</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.71739294811697</v>
       </c>
       <c r="Q45" t="n">
         <v>107.7232378871913</v>
       </c>
       <c r="R45" t="n">
-        <v>84.46748786242044</v>
+        <v>129.9891576737413</v>
       </c>
       <c r="S45" t="n">
         <v>166.9891461999742</v>
@@ -30830,13 +30830,13 @@
         <v>199.1461197487412</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W45" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30858,13 +30858,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="G46" t="n">
         <v>167.7791136399961</v>
@@ -30876,28 +30876,28 @@
         <v>149.0790949574905</v>
       </c>
       <c r="J46" t="n">
-        <v>112.0165151440865</v>
+        <v>78.38027382136319</v>
       </c>
       <c r="K46" t="n">
-        <v>104.3983137891471</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>103.3860221017998</v>
       </c>
       <c r="M46" t="n">
-        <v>94.82226943604707</v>
+        <v>105.7148695525912</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>108.5102821731398</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.7641367861777</v>
+        <v>68.42117840842621</v>
       </c>
       <c r="R46" t="n">
         <v>167.7671382542942</v>
@@ -30906,19 +30906,19 @@
         <v>220.324356379764</v>
       </c>
       <c r="T46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="V46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="W46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="X46" t="n">
-        <v>222.6873267611516</v>
+        <v>222.6873267611509</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.472318275969733</v>
+        <v>0.4723182759697334</v>
       </c>
       <c r="H26" t="n">
-        <v>4.837129543775029</v>
+        <v>4.837129543775034</v>
       </c>
       <c r="I26" t="n">
-        <v>18.20905033432315</v>
+        <v>18.20905033432317</v>
       </c>
       <c r="J26" t="n">
-        <v>40.08742327508616</v>
+        <v>40.0874232750862</v>
       </c>
       <c r="K26" t="n">
-        <v>60.08065589688497</v>
+        <v>60.08065589688503</v>
       </c>
       <c r="L26" t="n">
-        <v>74.5353663350937</v>
+        <v>74.53536633509377</v>
       </c>
       <c r="M26" t="n">
-        <v>82.93495647537044</v>
+        <v>82.93495647537051</v>
       </c>
       <c r="N26" t="n">
-        <v>84.27693077696945</v>
+        <v>84.27693077696954</v>
       </c>
       <c r="O26" t="n">
-        <v>79.5803159202954</v>
+        <v>79.58031592029549</v>
       </c>
       <c r="P26" t="n">
-        <v>67.91995848229261</v>
+        <v>67.91995848229269</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.00506022412654</v>
+        <v>51.00506022412659</v>
       </c>
       <c r="R26" t="n">
-        <v>29.66926290288377</v>
+        <v>29.66926290288379</v>
       </c>
       <c r="S26" t="n">
-        <v>10.7629527136603</v>
+        <v>10.76295271366031</v>
       </c>
       <c r="T26" t="n">
-        <v>2.067573253057507</v>
+        <v>2.067573253057509</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03778546207757863</v>
+        <v>0.03778546207757866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2527125568077682</v>
+        <v>0.2527125568077684</v>
       </c>
       <c r="H27" t="n">
-        <v>2.440671272327656</v>
+        <v>2.440671272327659</v>
       </c>
       <c r="I27" t="n">
-        <v>8.700848995355177</v>
+        <v>8.700848995355186</v>
       </c>
       <c r="J27" t="n">
-        <v>23.87579467629884</v>
+        <v>23.87579467629886</v>
       </c>
       <c r="K27" t="n">
-        <v>40.8075359824193</v>
+        <v>40.80753598241935</v>
       </c>
       <c r="L27" t="n">
-        <v>54.8707680910902</v>
+        <v>54.87076809109025</v>
       </c>
       <c r="M27" t="n">
-        <v>64.03159827537178</v>
+        <v>64.03159827537183</v>
       </c>
       <c r="N27" t="n">
-        <v>65.72632414975371</v>
+        <v>65.72632414975378</v>
       </c>
       <c r="O27" t="n">
-        <v>60.12674591732895</v>
+        <v>60.126745917329</v>
       </c>
       <c r="P27" t="n">
-        <v>48.25701446621321</v>
+        <v>48.25701446621326</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.2585361988302</v>
+        <v>32.25853619883024</v>
       </c>
       <c r="R27" t="n">
-        <v>15.69034629022267</v>
+        <v>15.69034629022268</v>
       </c>
       <c r="S27" t="n">
-        <v>4.694024903863586</v>
+        <v>4.69402490386359</v>
       </c>
       <c r="T27" t="n">
-        <v>1.018608946080434</v>
+        <v>1.018608946080435</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01662582610577423</v>
+        <v>0.01662582610577425</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2118657184626529</v>
+        <v>0.2118657184626531</v>
       </c>
       <c r="H28" t="n">
-        <v>1.883678842331588</v>
+        <v>1.88367884233159</v>
       </c>
       <c r="I28" t="n">
-        <v>6.371379969767782</v>
+        <v>6.371379969767788</v>
       </c>
       <c r="J28" t="n">
-        <v>14.97890629530956</v>
+        <v>14.97890629530957</v>
       </c>
       <c r="K28" t="n">
-        <v>24.61494438138821</v>
+        <v>24.61494438138824</v>
       </c>
       <c r="L28" t="n">
-        <v>31.49865417943842</v>
+        <v>31.49865417943845</v>
       </c>
       <c r="M28" t="n">
-        <v>33.21091439501385</v>
+        <v>33.21091439501388</v>
       </c>
       <c r="N28" t="n">
-        <v>32.42123308074399</v>
+        <v>32.42123308074402</v>
       </c>
       <c r="O28" t="n">
-        <v>29.94625627870299</v>
+        <v>29.94625627870301</v>
       </c>
       <c r="P28" t="n">
-        <v>25.62419562206485</v>
+        <v>25.62419562206487</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.74086484326815</v>
+        <v>17.74086484326816</v>
       </c>
       <c r="R28" t="n">
-        <v>9.526253122875282</v>
+        <v>9.526253122875291</v>
       </c>
       <c r="S28" t="n">
-        <v>3.692241657208231</v>
+        <v>3.692241657208235</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9052444334313349</v>
+        <v>0.9052444334313358</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01155631191614472</v>
+        <v>0.01155631191614473</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12.65881997533138</v>
+        <v>12.65881997533123</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.91646406331847</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>46.49309974210542</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>57.51438245951178</v>
       </c>
       <c r="N11" t="n">
         <v>103.0193684323634</v>
       </c>
       <c r="O11" t="n">
-        <v>97.82317165287816</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>33.6250295610911</v>
       </c>
       <c r="R11" t="n">
-        <v>84.72580417314823</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.668542338829088</v>
+        <v>6.668542338828946</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>99.22223394441986</v>
       </c>
       <c r="M12" t="n">
-        <v>93.4426944817462</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35516,7 +35516,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>5.779539462672944</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -35541,22 +35541,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.9444861163633</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.67883811278628</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.49169656484494</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>37.14654557141801</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35577,19 +35577,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>76.55340545997262</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.41537703827422</v>
       </c>
       <c r="P13" t="n">
-        <v>22.90275488695837</v>
+        <v>88.44150219882681</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.15852095711993</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.65881997533132</v>
+        <v>12.65881997533118</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>57.61047071221292</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.91646406331841</v>
       </c>
       <c r="L14" t="n">
-        <v>43.69461057652062</v>
+        <v>43.69461057652047</v>
       </c>
       <c r="M14" t="n">
-        <v>70.73235633974053</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>59.78952639179271</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="O14" t="n">
-        <v>54.40776371002285</v>
+        <v>54.40776371002271</v>
       </c>
       <c r="P14" t="n">
-        <v>41.61262193843723</v>
+        <v>72.59819323497898</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.62502956109118</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>84.72580417314818</v>
+        <v>19.0093843001656</v>
       </c>
       <c r="S14" t="n">
-        <v>6.668542338829031</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>99.22223394442014</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>99.22223394441943</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35781,25 +35781,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>37.67883811278622</v>
+        <v>37.67883811278608</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.49169656484489</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.50461118848267</v>
       </c>
       <c r="G16" t="n">
-        <v>37.14654557141795</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.58216554630607</v>
+        <v>44.58216554630593</v>
       </c>
       <c r="I16" t="n">
-        <v>1.656958491752439</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>46.89984316306735</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>99.21078965882276</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,10 +35823,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.16152242523638</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>37.15852095711987</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>103.0193684323634</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>98.85696970782347</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>15.52716458159027</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>103.0193684323634</v>
       </c>
       <c r="U17" t="n">
-        <v>83.32980512623317</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36118,29 +36118,29 @@
         <v>103.0193684323634</v>
       </c>
       <c r="J20" t="n">
-        <v>98.85696970782344</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>15.52716458159029</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>103.0193684323634</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>103.0193684323634</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>83.32980512623317</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>91.97155560596616</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>98.85696970782347</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>103.0193684323634</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>103.0193684323634</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>103.0193684323634</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.885414101857236</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.4049731565564</v>
+        <v>28.13813392047368</v>
       </c>
       <c r="K26" t="n">
-        <v>164.1362174230692</v>
+        <v>356.403056659152</v>
       </c>
       <c r="L26" t="n">
-        <v>448.6970051516397</v>
+        <v>448.6970051516398</v>
       </c>
       <c r="M26" t="n">
-        <v>494.369095977013</v>
+        <v>207.5121544515565</v>
       </c>
       <c r="N26" t="n">
-        <v>153.4629560805595</v>
+        <v>47.13070641646136</v>
       </c>
       <c r="O26" t="n">
-        <v>422.5491249974368</v>
+        <v>422.5491249974369</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>350.7525101345885</v>
       </c>
       <c r="Q26" t="n">
-        <v>184.4939548658639</v>
+        <v>233.2812002456645</v>
       </c>
       <c r="R26" t="n">
-        <v>6.350564324834416</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36653,7 +36653,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>44.82177367144399</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>16.20130382001769</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>109.7973407089673</v>
       </c>
       <c r="P27" t="n">
-        <v>170.8204182004288</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36726,25 +36726,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>12.43485905414545</v>
       </c>
       <c r="C28" t="n">
-        <v>25.02001813745494</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>43.65136621787042</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.8328765895136</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>46.84579121315153</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>31.92334557097479</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36753,28 +36753,28 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.345452555505361</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>8.820416663531956</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>72.79479135685443</v>
+        <v>72.79479135685446</v>
       </c>
       <c r="N28" t="n">
-        <v>76.55340545997258</v>
+        <v>215.6233752559174</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>54.53138419274269</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>22.90275488695836</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.49970098178857</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.4049731565566</v>
+        <v>220.4049731565565</v>
       </c>
       <c r="K29" t="n">
-        <v>356.4030566591521</v>
+        <v>164.1362174230692</v>
       </c>
       <c r="L29" t="n">
-        <v>448.6970051516399</v>
+        <v>448.6970051516398</v>
       </c>
       <c r="M29" t="n">
-        <v>115.0479244191582</v>
+        <v>104.0334084558824</v>
       </c>
       <c r="N29" t="n">
-        <v>292.2107915923628</v>
+        <v>342.876291648218</v>
       </c>
       <c r="O29" t="n">
-        <v>5.599446420032322</v>
+        <v>422.5491249974369</v>
       </c>
       <c r="P29" t="n">
-        <v>350.7525101345887</v>
+        <v>350.7525101345886</v>
       </c>
       <c r="Q29" t="n">
-        <v>233.2812002456647</v>
+        <v>41.0143610095818</v>
       </c>
       <c r="R29" t="n">
-        <v>72.06698419781701</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>114.1644035894363</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>56.6560146109923</v>
       </c>
       <c r="P30" t="n">
-        <v>170.8204182004282</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>88.88081713428298</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>169.501064873783</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>97.00252785159364</v>
       </c>
       <c r="O31" t="n">
-        <v>163.1175706235761</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>215.1695941230413</v>
+        <v>22.90275488695837</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.4049731565565</v>
+        <v>51.30835798448268</v>
       </c>
       <c r="K32" t="n">
-        <v>356.4030566591521</v>
+        <v>183.5255301995414</v>
       </c>
       <c r="L32" t="n">
         <v>448.6970051516398</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>302.1022567409303</v>
       </c>
       <c r="N32" t="n">
-        <v>354.4075599235914</v>
+        <v>292.2107915923628</v>
       </c>
       <c r="O32" t="n">
-        <v>230.2822857613542</v>
+        <v>352.7860949660291</v>
       </c>
       <c r="P32" t="n">
-        <v>350.7525101345886</v>
+        <v>158.4856708985058</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.5165011900897</v>
+        <v>233.2812002456645</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>72.06698419781686</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37133,7 +37133,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>47.19762684269895</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>123.6227913577295</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>86.27681685153755</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>84.54360134889147</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37203,13 +37203,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>25.020018137455</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>43.65136621787047</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>45.83287658951366</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>43.18774427859233</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>115.9324277323975</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>59.0886794397546</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>72.79479135685449</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>223.500939063051</v>
       </c>
       <c r="P34" t="n">
-        <v>80.16303080900011</v>
+        <v>22.90275488695837</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.49970098178864</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.42048752506899</v>
+        <v>30.42048752506816</v>
       </c>
       <c r="J35" t="n">
-        <v>212.7499634450654</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>326.1383783921626</v>
+        <v>386.8235441842201</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>61.45627812625746</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="N35" t="n">
-        <v>425.9396246944728</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="O35" t="n">
-        <v>425.9396246944728</v>
+        <v>72.16943125975969</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>220.9395142992623</v>
       </c>
       <c r="Q35" t="n">
-        <v>263.7016877707335</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>36.77105184990258</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>24.43020988856587</v>
       </c>
       <c r="T35" t="n">
-        <v>1.659050450077877</v>
+        <v>1.659050450077053</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37370,7 +37370,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>43.21839228829583</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>43.21839228829836</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>167.6170607929012</v>
+        <v>167.6170607929054</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.42048752506899</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>250.8254606816246</v>
       </c>
       <c r="K38" t="n">
-        <v>179.2527285385631</v>
+        <v>386.8235441842201</v>
       </c>
       <c r="L38" t="n">
-        <v>61.45627812625828</v>
+        <v>256.430165915557</v>
       </c>
       <c r="M38" t="n">
-        <v>425.9396246944731</v>
+        <v>75.27605000924871</v>
       </c>
       <c r="N38" t="n">
-        <v>425.9396246944731</v>
+        <v>77.55119394152955</v>
       </c>
       <c r="O38" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="P38" t="n">
-        <v>49.44269973801309</v>
+        <v>109.8281043472815</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.38669711082885</v>
+        <v>41.0143610095818</v>
       </c>
       <c r="R38" t="n">
-        <v>36.7710518499034</v>
+        <v>36.77105184990258</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>24.43020988856587</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.659050450077053</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37595,7 +37595,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>19.67718527588864</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.21839228829584</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>23.54120701240973</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>59.0886794397546</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>108.5283813531465</v>
+        <v>116.9724572085597</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>50.64460358434565</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>30.4204875250689</v>
+        <v>30.42048752506816</v>
       </c>
       <c r="J41" t="n">
-        <v>250.8254606816253</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>386.8235441842209</v>
+        <v>62.6781316130554</v>
       </c>
       <c r="L41" t="n">
-        <v>256.430165915557</v>
+        <v>385.4763006157362</v>
       </c>
       <c r="M41" t="n">
-        <v>91.97785437387564</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="N41" t="n">
-        <v>425.9396246944731</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="O41" t="n">
-        <v>72.16943125976043</v>
+        <v>182.4733490417062</v>
       </c>
       <c r="P41" t="n">
-        <v>59.37428948817481</v>
+        <v>59.37428948817407</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.38669711082876</v>
+        <v>51.38669711082802</v>
       </c>
       <c r="R41" t="n">
-        <v>36.77105184990332</v>
+        <v>36.77105184990258</v>
       </c>
       <c r="S41" t="n">
-        <v>24.43020988856661</v>
+        <v>24.43020988856587</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.659050450077053</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.2183922882961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>43.21839228829837</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>116.9724572085597</v>
       </c>
       <c r="N43" t="n">
-        <v>167.6170607929016</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>50.64460358434565</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38011,40 +38011,40 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.4204875250689</v>
+        <v>30.42048752506816</v>
       </c>
       <c r="J44" t="n">
-        <v>81.72884550955158</v>
+        <v>28.1381339204737</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>386.8235441842201</v>
       </c>
       <c r="L44" t="n">
-        <v>61.4562781262582</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>267.0528002766321</v>
       </c>
       <c r="N44" t="n">
-        <v>425.9396246944731</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>337.9823735133486</v>
+        <v>425.9396246944754</v>
       </c>
       <c r="P44" t="n">
-        <v>381.1729976596574</v>
+        <v>59.37428948817407</v>
       </c>
       <c r="Q44" t="n">
-        <v>263.7016877707334</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.4874717228858</v>
+        <v>36.77105184990258</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.43020988856587</v>
       </c>
       <c r="T44" t="n">
-        <v>1.659050450077792</v>
+        <v>1.659050450077053</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.2183922882961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.21839228829837</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38154,13 +38154,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>74.07185374293854</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>77.26627873821965</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>167.6170607929016</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>16.2789283117472</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
